--- a/3m_portfolio_returns_.xlsx
+++ b/3m_portfolio_returns_.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>ACCU</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>CCA</t>
+  </si>
+  <si>
+    <t>RGGI</t>
   </si>
   <si>
     <t>Total</t>
@@ -438,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -466,258 +469,294 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>411508.47</v>
+        <v>157148.07</v>
       </c>
       <c r="C2">
-        <v>1134368.67</v>
+        <v>-235940.35</v>
       </c>
       <c r="D2">
-        <v>-177939.45</v>
+        <v>-323192.48</v>
       </c>
       <c r="E2">
-        <v>342845.25</v>
+        <v>309691.31</v>
       </c>
       <c r="F2">
-        <v>99649.50999999999</v>
+        <v>-180404.05</v>
       </c>
       <c r="G2">
-        <v>1810432.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-395220.77</v>
+      </c>
+      <c r="H2">
+        <v>-667918.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>1617793.75</v>
+        <v>729028.28</v>
       </c>
       <c r="C3">
-        <v>-52189.54</v>
+        <v>-51132.1</v>
       </c>
       <c r="D3">
-        <v>334030.71</v>
+        <v>-823524.27</v>
       </c>
       <c r="E3">
-        <v>-90504.25999999999</v>
+        <v>-103075.62</v>
       </c>
       <c r="F3">
-        <v>-27977.26</v>
+        <v>-154976</v>
       </c>
       <c r="G3">
-        <v>1781153.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-318864.59</v>
+      </c>
+      <c r="H3">
+        <v>-722544.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>1537542.48</v>
+        <v>2003216.5</v>
       </c>
       <c r="C4">
-        <v>23517.61</v>
+        <v>42316.05</v>
       </c>
       <c r="D4">
-        <v>-25560.32</v>
+        <v>279112.78</v>
       </c>
       <c r="E4">
-        <v>-62612.94</v>
+        <v>-53951.25</v>
       </c>
       <c r="F4">
-        <v>-136336.89</v>
+        <v>18926.83</v>
       </c>
       <c r="G4">
-        <v>1336549.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12161.83</v>
+      </c>
+      <c r="H4">
+        <v>2301782.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>30601.14</v>
+        <v>-23641.46</v>
       </c>
       <c r="C5">
-        <v>-111576.23</v>
+        <v>-143973.02</v>
       </c>
       <c r="D5">
-        <v>44162.69</v>
+        <v>-523539.2</v>
       </c>
       <c r="E5">
-        <v>52886.17</v>
+        <v>129437.91</v>
       </c>
       <c r="F5">
-        <v>-264271.82</v>
+        <v>-38459.85</v>
       </c>
       <c r="G5">
-        <v>-248198.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-141510.94</v>
+      </c>
+      <c r="H5">
+        <v>-741686.5599999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>287155.89</v>
+        <v>436065.88</v>
       </c>
       <c r="C6">
-        <v>-86154.12</v>
+        <v>-103111.65</v>
       </c>
       <c r="D6">
-        <v>512238.21</v>
+        <v>-303155.52</v>
       </c>
       <c r="E6">
-        <v>-128597.08</v>
+        <v>-178159.78</v>
       </c>
       <c r="F6">
-        <v>29870.63</v>
+        <v>71917.5</v>
       </c>
       <c r="G6">
-        <v>614513.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>20976.19</v>
+      </c>
+      <c r="H6">
+        <v>-55467.38000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-69622.77</v>
+        <v>-70785.87</v>
       </c>
       <c r="C7">
-        <v>-132013.7</v>
+        <v>-167282.21</v>
       </c>
       <c r="D7">
-        <v>151731.71</v>
+        <v>-630853.38</v>
       </c>
       <c r="E7">
-        <v>-124460.12</v>
+        <v>-166796.77</v>
       </c>
       <c r="F7">
-        <v>-257275.74</v>
+        <v>-80247.31</v>
       </c>
       <c r="G7">
-        <v>-431640.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-100978.59</v>
+      </c>
+      <c r="H7">
+        <v>-1216944.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>25518.99</v>
+        <v>-26044.02</v>
       </c>
       <c r="C8">
-        <v>-277377.77</v>
+        <v>312403.58</v>
       </c>
       <c r="D8">
-        <v>-151405.42</v>
+        <v>-345643.12</v>
       </c>
       <c r="E8">
-        <v>-23227.72</v>
+        <v>12201.43</v>
       </c>
       <c r="F8">
-        <v>-271611.82</v>
+        <v>-49637.18</v>
       </c>
       <c r="G8">
-        <v>-698103.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1055.94</v>
+      </c>
+      <c r="H8">
+        <v>-95663.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>505671.11</v>
+        <v>713314.5699999999</v>
       </c>
       <c r="C9">
-        <v>-255354.47</v>
+        <v>165277.14</v>
       </c>
       <c r="D9">
-        <v>-105964.09</v>
+        <v>-18685.85</v>
       </c>
       <c r="E9">
-        <v>-71272.95</v>
+        <v>-113781.68</v>
       </c>
       <c r="F9">
-        <v>-260692.33</v>
+        <v>-77430.19</v>
       </c>
       <c r="G9">
-        <v>-187612.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-91546.77</v>
+      </c>
+      <c r="H9">
+        <v>577147.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1541.98</v>
+        <v>66623.46000000001</v>
       </c>
       <c r="C10">
-        <v>1153109.77</v>
+        <v>-283343.59</v>
       </c>
       <c r="D10">
-        <v>55818.7</v>
+        <v>552644.75</v>
       </c>
       <c r="E10">
-        <v>-70272.39999999999</v>
+        <v>-112677.12</v>
       </c>
       <c r="F10">
-        <v>-199540.54</v>
+        <v>-108864.37</v>
       </c>
       <c r="G10">
-        <v>937573.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-157826.74</v>
+      </c>
+      <c r="H10">
+        <v>-43443.60999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-58038.96</v>
+        <v>-65370.65</v>
       </c>
       <c r="C11">
-        <v>-48125.49</v>
+        <v>-45103.74</v>
       </c>
       <c r="D11">
-        <v>-39510.01</v>
+        <v>229352.13</v>
       </c>
       <c r="E11">
-        <v>56404.74</v>
+        <v>134505.13</v>
       </c>
       <c r="F11">
-        <v>-234945.8</v>
+        <v>-93860.24000000001</v>
       </c>
       <c r="G11">
-        <v>-324215.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-132391.2</v>
+      </c>
+      <c r="H11">
+        <v>27131.42999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>-137778.12</v>
+        <v>-88615.09</v>
       </c>
       <c r="C12">
-        <v>-219295.53</v>
+        <v>11289.02</v>
       </c>
       <c r="D12">
-        <v>400177.73</v>
+        <v>-89866.13</v>
       </c>
       <c r="E12">
-        <v>-123515.18</v>
+        <v>-173751.17</v>
       </c>
       <c r="F12">
-        <v>-197281.38</v>
+        <v>-2011.02</v>
       </c>
       <c r="G12">
-        <v>-277692.48</v>
+        <v>-365694.28</v>
+      </c>
+      <c r="H12">
+        <v>-708648.67</v>
       </c>
     </row>
   </sheetData>
@@ -727,13 +766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,143 +791,164 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-137778.12</v>
+        <v>-88615.09</v>
       </c>
       <c r="C2">
-        <v>-277377.77</v>
+        <v>-283343.59</v>
       </c>
       <c r="D2">
-        <v>-177939.45</v>
+        <v>-823524.27</v>
       </c>
       <c r="E2">
-        <v>-128597.08</v>
+        <v>-178159.78</v>
       </c>
       <c r="F2">
-        <v>-271611.82</v>
+        <v>-180404.05</v>
       </c>
       <c r="G2">
-        <v>-698103.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-395220.77</v>
+      </c>
+      <c r="H2">
+        <v>-1216944.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-137778.12</v>
+        <v>-88615.09</v>
       </c>
       <c r="C3">
-        <v>-277377.77</v>
+        <v>-283343.59</v>
       </c>
       <c r="D3">
-        <v>-177939.45</v>
+        <v>-823524.27</v>
       </c>
       <c r="E3">
-        <v>-128597.08</v>
+        <v>-178159.78</v>
       </c>
       <c r="F3">
-        <v>-271611.82</v>
+        <v>-180404.05</v>
       </c>
       <c r="G3">
-        <v>-698103.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-395220.77</v>
+      </c>
+      <c r="H3">
+        <v>-1216944.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-1541.98</v>
+        <v>-26044.02</v>
       </c>
       <c r="C4">
-        <v>-132013.7</v>
+        <v>-143973.02</v>
       </c>
       <c r="D4">
-        <v>-39510.01</v>
+        <v>-345643.12</v>
       </c>
       <c r="E4">
-        <v>-90504.25999999999</v>
+        <v>-113781.68</v>
       </c>
       <c r="F4">
-        <v>-257275.74</v>
+        <v>-93860.24000000001</v>
       </c>
       <c r="G4">
-        <v>-277692.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-157826.74</v>
+      </c>
+      <c r="H4">
+        <v>-708648.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>411508.47</v>
+        <v>436065.88</v>
       </c>
       <c r="C5">
-        <v>-48125.49</v>
+        <v>11289.02</v>
       </c>
       <c r="D5">
-        <v>151731.71</v>
+        <v>-18685.85</v>
       </c>
       <c r="E5">
-        <v>-23227.72</v>
+        <v>12201.43</v>
       </c>
       <c r="F5">
-        <v>-136336.89</v>
+        <v>-38459.85</v>
       </c>
       <c r="G5">
-        <v>937573.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-91546.77</v>
+      </c>
+      <c r="H5">
+        <v>-43443.60999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>1617793.75</v>
+        <v>2003216.5</v>
       </c>
       <c r="C6">
-        <v>1153109.77</v>
+        <v>312403.58</v>
       </c>
       <c r="D6">
-        <v>512238.21</v>
+        <v>552644.75</v>
       </c>
       <c r="E6">
-        <v>342845.25</v>
+        <v>309691.31</v>
       </c>
       <c r="F6">
-        <v>99649.50999999999</v>
+        <v>71917.5</v>
       </c>
       <c r="G6">
-        <v>1810432.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>20976.19</v>
+      </c>
+      <c r="H6">
+        <v>2301782.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>1617793.75</v>
+        <v>2003216.5</v>
       </c>
       <c r="C7">
-        <v>1153109.77</v>
+        <v>312403.58</v>
       </c>
       <c r="D7">
-        <v>512238.21</v>
+        <v>552644.75</v>
       </c>
       <c r="E7">
-        <v>342845.25</v>
+        <v>309691.31</v>
       </c>
       <c r="F7">
-        <v>99649.50999999999</v>
+        <v>71917.5</v>
       </c>
       <c r="G7">
-        <v>1810432.45</v>
+        <v>20976.19</v>
+      </c>
+      <c r="H7">
+        <v>2301782.74</v>
       </c>
     </row>
   </sheetData>
@@ -898,15 +958,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -926,258 +986,294 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>804043.9912576005</v>
+        <v>668264.248704663</v>
       </c>
       <c r="C2">
-        <v>1120500.228765228</v>
+        <v>931287.2389398208</v>
       </c>
       <c r="D2">
-        <v>223345.1979309771</v>
+        <v>185631.8533198847</v>
       </c>
       <c r="E2">
-        <v>1379714.19729169</v>
+        <v>1146734.892676645</v>
       </c>
       <c r="F2">
-        <v>572024.1251985728</v>
+        <v>475423.6211904699</v>
       </c>
       <c r="G2">
-        <v>4099627.740444068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>599846.4743448345</v>
+      </c>
+      <c r="H2">
+        <v>4007188.329176318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>2227044.924120507</v>
+        <v>1850961.538461538</v>
       </c>
       <c r="C3">
-        <v>132863.08322505</v>
+        <v>110427.1920319381</v>
       </c>
       <c r="D3">
-        <v>693262.4199166965</v>
+        <v>576200.3796738691</v>
       </c>
       <c r="E3">
-        <v>-12485.85833469215</v>
+        <v>-10377.48937099757</v>
       </c>
       <c r="F3">
-        <v>474547.8903733421</v>
+        <v>394408.6735699714</v>
       </c>
       <c r="G3">
-        <v>3515232.459300904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>459074.4416884553</v>
+      </c>
+      <c r="H3">
+        <v>3380694.736054774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-930992.1133774357</v>
+        <v>-773774.5098039217</v>
       </c>
       <c r="C4">
-        <v>261498.1781870535</v>
+        <v>217340.3539774195</v>
       </c>
       <c r="D4">
-        <v>-112601.5234633853</v>
+        <v>-93587.99598463015</v>
       </c>
       <c r="E4">
-        <v>61826.14689076022</v>
+        <v>51386.14943482948</v>
       </c>
       <c r="F4">
-        <v>-180342.8025666084</v>
+        <v>-149887.4338946655</v>
       </c>
       <c r="G4">
-        <v>-900612.1143296156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-103901.3220670459</v>
+      </c>
+      <c r="H4">
+        <v>-852424.7583380144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>349317.4726882791</v>
+        <v>290327.8688524591</v>
       </c>
       <c r="C5">
-        <v>3051.550357160775</v>
+        <v>2536.251072199936</v>
       </c>
       <c r="D5">
-        <v>411513.0809475508</v>
+        <v>342026.3188522959</v>
       </c>
       <c r="E5">
-        <v>281835.665413841</v>
+        <v>234244.7386315218</v>
       </c>
       <c r="F5">
-        <v>28473.8969269625</v>
+        <v>23665.37107455287</v>
       </c>
       <c r="G5">
-        <v>1074191.666333794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>139513.002772182</v>
+      </c>
+      <c r="H5">
+        <v>1032313.551255212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-287041.3457755321</v>
+        <v>-238568.3760683761</v>
       </c>
       <c r="C6">
-        <v>60950.70318645608</v>
+        <v>50658.27799473694</v>
       </c>
       <c r="D6">
-        <v>-596554.6683703307</v>
+        <v>-495822.3849094652</v>
       </c>
       <c r="E6">
-        <v>-271427.4872574404</v>
+        <v>-225594.0912115213</v>
       </c>
       <c r="F6">
-        <v>-329394.8197133174</v>
+        <v>-273768.3099207125</v>
       </c>
       <c r="G6">
-        <v>-1423467.617930165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-116246.2534685264</v>
+      </c>
+      <c r="H6">
+        <v>-1299341.137583865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>225963.5825449101</v>
+        <v>187804.8780487808</v>
       </c>
       <c r="C7">
-        <v>-46916.4130681385</v>
+        <v>-38993.88475389735</v>
       </c>
       <c r="D7">
-        <v>512303.7674691958</v>
+        <v>425797.8174550043</v>
       </c>
       <c r="E7">
-        <v>-169163.9934899055</v>
+        <v>-140598.8677221592</v>
       </c>
       <c r="F7">
-        <v>188120.5757066321</v>
+        <v>156351.7365492859</v>
       </c>
       <c r="G7">
-        <v>710307.519162694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>70695.61201211934</v>
+      </c>
+      <c r="H7">
+        <v>661057.2915891338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>343129.884605234</v>
+        <v>285185.1851851851</v>
       </c>
       <c r="C8">
-        <v>-664348.3083772623</v>
+        <v>-552163.2980698247</v>
       </c>
       <c r="D8">
-        <v>244431.0934020596</v>
+        <v>203157.2529768591</v>
       </c>
       <c r="E8">
-        <v>145861.0357779115</v>
+        <v>121230.86037443</v>
       </c>
       <c r="F8">
-        <v>71032.14272108706</v>
+        <v>59036.59832818154</v>
       </c>
       <c r="G8">
-        <v>140105.8481290298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-88080.38474462007</v>
+      </c>
+      <c r="H8">
+        <v>28366.21405021104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-412419.9838835808</v>
+        <v>-342774.193548387</v>
       </c>
       <c r="C9">
-        <v>-509972.8560187878</v>
+        <v>-423856.4177174312</v>
       </c>
       <c r="D9">
-        <v>-51418.06462615856</v>
+        <v>-42735.77725913417</v>
       </c>
       <c r="E9">
-        <v>-627512.7583300303</v>
+        <v>-521550.60590761</v>
       </c>
       <c r="F9">
-        <v>177329.6620289333</v>
+        <v>147383.137095855</v>
       </c>
       <c r="G9">
-        <v>-1423994.000829624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>55084.57562023215</v>
+      </c>
+      <c r="H9">
+        <v>-1128449.281716475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-109079.751385494</v>
+        <v>-90659.34065934073</v>
       </c>
       <c r="C10">
-        <v>1171687.635372577</v>
+        <v>973830.8969811765</v>
       </c>
       <c r="D10">
-        <v>-168799.336466884</v>
+        <v>-140296.4288365767</v>
       </c>
       <c r="E10">
-        <v>-631670.9239323621</v>
+        <v>-525006.6213599999</v>
       </c>
       <c r="F10">
-        <v>297787.7212823993</v>
+        <v>247498.8563620284</v>
       </c>
       <c r="G10">
-        <v>559925.3448702365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>167893.2194295338</v>
+      </c>
+      <c r="H10">
+        <v>633260.5819168214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>240388.7700632218</v>
+        <v>199794.0691927514</v>
       </c>
       <c r="C11">
-        <v>141138.9720661373</v>
+        <v>117305.5749815628</v>
       </c>
       <c r="D11">
-        <v>-102378.0759534471</v>
+        <v>-85090.84661151071</v>
       </c>
       <c r="E11">
-        <v>287743.2941756513</v>
+        <v>239154.8019239385</v>
       </c>
       <c r="F11">
-        <v>240280.6202116585</v>
+        <v>199703.2599337712</v>
       </c>
       <c r="G11">
-        <v>807173.5805632218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>123805.9349885477</v>
+      </c>
+      <c r="H11">
+        <v>794672.7944090609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>17284.52776929314</v>
+        <v>14365.67164179081</v>
       </c>
       <c r="C12">
-        <v>-325758.6183558893</v>
+        <v>-270749.4710499266</v>
       </c>
       <c r="D12">
-        <v>-518650.9746934606</v>
+        <v>-431073.2558855623</v>
       </c>
       <c r="E12">
-        <v>-350546.0682922426</v>
+        <v>-291352.6647695577</v>
       </c>
       <c r="F12">
-        <v>-107404.5300727677</v>
+        <v>-89266.60322539706</v>
       </c>
       <c r="G12">
-        <v>-1285075.663645067</v>
+        <v>545349.1972104483</v>
+      </c>
+      <c r="H12">
+        <v>-522727.1260782045</v>
       </c>
     </row>
   </sheetData>
@@ -1187,15 +1283,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1215,258 +1311,294 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>-392535.5212576005</v>
+        <v>-511116.178704663</v>
       </c>
       <c r="C2">
-        <v>13868.44123477233</v>
+        <v>-1167227.588939821</v>
       </c>
       <c r="D2">
-        <v>-401284.6479309771</v>
+        <v>-508824.3333198847</v>
       </c>
       <c r="E2">
-        <v>-1036868.94729169</v>
+        <v>-837043.5826766451</v>
       </c>
       <c r="F2">
-        <v>-472374.6151985727</v>
+        <v>-655827.6711904699</v>
       </c>
       <c r="G2">
-        <v>-2289195.290444068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-995067.2443448345</v>
+      </c>
+      <c r="H2">
+        <v>-4675106.599176317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>-609251.1741205072</v>
+        <v>-1121933.258461538</v>
       </c>
       <c r="C3">
-        <v>-185052.62322505</v>
+        <v>-161559.2920319381</v>
       </c>
       <c r="D3">
-        <v>-359231.7099166965</v>
+        <v>-1399724.649673869</v>
       </c>
       <c r="E3">
-        <v>-78018.40166530784</v>
+        <v>-92698.13062900242</v>
       </c>
       <c r="F3">
-        <v>-502525.1503733422</v>
+        <v>-549384.6735699715</v>
       </c>
       <c r="G3">
-        <v>-1734079.059300904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-777939.0316884553</v>
+      </c>
+      <c r="H3">
+        <v>-4103239.036054774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>2468534.593377436</v>
+        <v>2776991.009803922</v>
       </c>
       <c r="C4">
-        <v>-237980.5681870535</v>
+        <v>-175024.3039774194</v>
       </c>
       <c r="D4">
-        <v>87041.20346338535</v>
+        <v>372700.7759846302</v>
       </c>
       <c r="E4">
-        <v>-124439.0868907602</v>
+        <v>-105337.3994348295</v>
       </c>
       <c r="F4">
-        <v>44005.91256660834</v>
+        <v>168814.2638946655</v>
       </c>
       <c r="G4">
-        <v>2237162.054329616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>116063.1520670459</v>
+      </c>
+      <c r="H4">
+        <v>3154207.498338015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-318716.332688279</v>
+        <v>-313969.3288524591</v>
       </c>
       <c r="C5">
-        <v>-114627.7803571608</v>
+        <v>-146509.2710721999</v>
       </c>
       <c r="D5">
-        <v>-367350.3909475508</v>
+        <v>-865565.5188522958</v>
       </c>
       <c r="E5">
-        <v>-228949.495413841</v>
+        <v>-104806.8286315218</v>
       </c>
       <c r="F5">
-        <v>-292745.7169269625</v>
+        <v>-62125.22107455286</v>
       </c>
       <c r="G5">
-        <v>-1322389.716333794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-281023.9427721819</v>
+      </c>
+      <c r="H5">
+        <v>-1774000.111255212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>574197.2357755321</v>
+        <v>674634.2560683761</v>
       </c>
       <c r="C6">
-        <v>-147104.8231864561</v>
+        <v>-153769.9279947369</v>
       </c>
       <c r="D6">
-        <v>1108792.878370331</v>
+        <v>192666.8649094652</v>
       </c>
       <c r="E6">
-        <v>142830.4072574404</v>
+        <v>47434.31121152127</v>
       </c>
       <c r="F6">
-        <v>359265.4497133174</v>
+        <v>345685.8099207125</v>
       </c>
       <c r="G6">
-        <v>2037981.147930165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>137222.4434685264</v>
+      </c>
+      <c r="H6">
+        <v>1243873.757583864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-295586.3525449101</v>
+        <v>-258590.7480487808</v>
       </c>
       <c r="C7">
-        <v>-85097.28693186151</v>
+        <v>-128288.3252461026</v>
       </c>
       <c r="D7">
-        <v>-360572.0574691958</v>
+        <v>-1056651.197455004</v>
       </c>
       <c r="E7">
-        <v>44703.87348990553</v>
+        <v>-26197.90227784077</v>
       </c>
       <c r="F7">
-        <v>-445396.3157066321</v>
+        <v>-236599.0465492858</v>
       </c>
       <c r="G7">
-        <v>-1141948.139162694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-171674.2020121193</v>
+      </c>
+      <c r="H7">
+        <v>-1878001.421589134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-317610.894605234</v>
+        <v>-311229.2051851851</v>
       </c>
       <c r="C8">
-        <v>386970.5383772623</v>
+        <v>864566.8780698248</v>
       </c>
       <c r="D8">
-        <v>-395836.5134020596</v>
+        <v>-548800.3729768591</v>
       </c>
       <c r="E8">
-        <v>-169088.7557779115</v>
+        <v>-109029.4303744301</v>
       </c>
       <c r="F8">
-        <v>-342643.962721087</v>
+        <v>-108673.7783281815</v>
       </c>
       <c r="G8">
-        <v>-838209.5881290298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>89136.32474462007</v>
+      </c>
+      <c r="H8">
+        <v>-124029.584050211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>918091.0938835808</v>
+        <v>1056088.763548387</v>
       </c>
       <c r="C9">
-        <v>254618.3860187878</v>
+        <v>589133.5577174312</v>
       </c>
       <c r="D9">
-        <v>-54546.02537384143</v>
+        <v>24049.92725913417</v>
       </c>
       <c r="E9">
-        <v>556239.8083300303</v>
+        <v>407768.92590761</v>
       </c>
       <c r="F9">
-        <v>-438021.9920289333</v>
+        <v>-224813.327095855</v>
       </c>
       <c r="G9">
-        <v>1236381.270829624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-146631.3456202322</v>
+      </c>
+      <c r="H9">
+        <v>1705596.501716475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>107537.771385494</v>
+        <v>157282.8006593407</v>
       </c>
       <c r="C10">
-        <v>-18577.86537257745</v>
+        <v>-1257174.486981177</v>
       </c>
       <c r="D10">
-        <v>224618.036466884</v>
+        <v>692941.1788365766</v>
       </c>
       <c r="E10">
-        <v>561398.5239323621</v>
+        <v>412329.5013599999</v>
       </c>
       <c r="F10">
-        <v>-497328.2612823993</v>
+        <v>-356363.2263620284</v>
       </c>
       <c r="G10">
-        <v>377648.2051297636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-325719.9594295338</v>
+      </c>
+      <c r="H10">
+        <v>-676704.1919168214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-298427.7300632218</v>
+        <v>-265164.7191927515</v>
       </c>
       <c r="C11">
-        <v>-189264.4620661373</v>
+        <v>-162409.3149815628</v>
       </c>
       <c r="D11">
-        <v>62868.06595344708</v>
+        <v>314442.9766115107</v>
       </c>
       <c r="E11">
-        <v>-231338.5541756513</v>
+        <v>-104649.6719239385</v>
       </c>
       <c r="F11">
-        <v>-475226.4202116585</v>
+        <v>-293563.4999337711</v>
       </c>
       <c r="G11">
-        <v>-1131389.100563222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-256197.1349885477</v>
+      </c>
+      <c r="H11">
+        <v>-767541.3644090609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>-155062.6477692931</v>
+        <v>-102980.7616417908</v>
       </c>
       <c r="C12">
-        <v>106463.0883558893</v>
+        <v>282038.4910499266</v>
       </c>
       <c r="D12">
-        <v>918828.7046934606</v>
+        <v>341207.1258855623</v>
       </c>
       <c r="E12">
-        <v>227030.8882922426</v>
+        <v>117601.4947695576</v>
       </c>
       <c r="F12">
-        <v>-89876.84992723227</v>
+        <v>87255.58322539706</v>
       </c>
       <c r="G12">
-        <v>1007383.183645067</v>
+        <v>-911043.4772104484</v>
+      </c>
+      <c r="H12">
+        <v>-185921.5439217956</v>
       </c>
     </row>
   </sheetData>
@@ -1476,21 +1608,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1504,281 +1636,320 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>46.47668393782383</v>
+        <v>47.15025906735751</v>
       </c>
       <c r="C2">
         <v>47.2421052631579</v>
       </c>
       <c r="D2">
-        <v>80.27260179434093</v>
+        <v>90.51069703243617</v>
       </c>
       <c r="E2">
-        <v>78.16452850293021</v>
+        <v>78.38381459776238</v>
       </c>
       <c r="F2">
-        <v>61.35462365591398</v>
+        <v>64.46623655913979</v>
       </c>
       <c r="G2">
-        <v>41.92328103989242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>42.67146571044375</v>
+      </c>
+      <c r="H2">
+        <v>34.36421800947868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>67.67307692307692</v>
+        <v>68.65384615384615</v>
       </c>
       <c r="C3">
         <v>40.81188725490196</v>
       </c>
       <c r="D3">
-        <v>57.20341085271318</v>
+        <v>64.49922480620155</v>
       </c>
       <c r="E3">
-        <v>92.62850340136055</v>
+        <v>92.88836734693876</v>
       </c>
       <c r="F3">
-        <v>38.24272237196765</v>
+        <v>40.18221024258759</v>
       </c>
       <c r="G3">
-        <v>40.5083537023724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>41.23128684399713</v>
+      </c>
+      <c r="H3">
+        <v>32.44823848238482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>20.63235294117647</v>
+        <v>20.93137254901961</v>
       </c>
       <c r="C4">
         <v>42.72832369942196</v>
       </c>
       <c r="D4">
-        <v>60.20806451612904</v>
+        <v>67.88709677419355</v>
       </c>
       <c r="E4">
-        <v>67.82414360508602</v>
+        <v>68.01442034405385</v>
       </c>
       <c r="F4">
-        <v>39.47637533875339</v>
+        <v>41.47842818428185</v>
       </c>
       <c r="G4">
-        <v>31.00221360381861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>31.5554952267303</v>
+      </c>
+      <c r="H4">
+        <v>24.78584974471189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>39.70327868852459</v>
+        <v>40.27868852459017</v>
       </c>
       <c r="C5">
         <v>39.50260416666667</v>
       </c>
       <c r="D5">
-        <v>54.17127799736495</v>
+        <v>61.08036890645585</v>
       </c>
       <c r="E5">
-        <v>83.95630503144656</v>
+        <v>84.19183962264151</v>
       </c>
       <c r="F5">
-        <v>43.12875148475651</v>
+        <v>45.31603537019929</v>
       </c>
       <c r="G5">
-        <v>34.03331607893885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>34.64069233257845</v>
+      </c>
+      <c r="H5">
+        <v>28.0988434849653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>30.22435897435897</v>
+        <v>30.66239316239316</v>
       </c>
       <c r="C6">
         <v>50.2258883248731</v>
       </c>
       <c r="D6">
-        <v>55.52368421052632</v>
+        <v>62.60526315789474</v>
       </c>
       <c r="E6">
-        <v>52.92814530485092</v>
+        <v>53.07663217623498</v>
       </c>
       <c r="F6">
-        <v>33.94403459230498</v>
+        <v>35.6655135898341</v>
       </c>
       <c r="G6">
-        <v>28.83863215084692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>29.35330137424097</v>
+      </c>
+      <c r="H6">
+        <v>24.61782890007189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>37.86585365853659</v>
+        <v>38.41463414634147</v>
       </c>
       <c r="C7">
         <v>34.1556420233463</v>
       </c>
       <c r="D7">
-        <v>53.00412820512821</v>
+        <v>59.76435897435898</v>
       </c>
       <c r="E7">
-        <v>87.05862580548479</v>
+        <v>87.30286377940955</v>
       </c>
       <c r="F7">
-        <v>35.6417099826736</v>
+        <v>37.44928695188591</v>
       </c>
       <c r="G7">
-        <v>36.35068554396423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>36.99941877794336</v>
+      </c>
+      <c r="H7">
+        <v>27.16220351951033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>39.61111111111111</v>
+        <v>40.18518518518518</v>
       </c>
       <c r="C8">
         <v>33.09649122807018</v>
       </c>
       <c r="D8">
-        <v>38.58217744046061</v>
+        <v>43.50300968332897</v>
       </c>
       <c r="E8">
-        <v>78.81354890170574</v>
+        <v>79.03465578598602</v>
       </c>
       <c r="F8">
-        <v>40.87143781452193</v>
+        <v>42.94424155283969</v>
       </c>
       <c r="G8">
-        <v>34.65107512060648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>35.26947622329428</v>
+      </c>
+      <c r="H8">
+        <v>25.00118081180812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>28.35677419354839</v>
+        <v>28.76774193548387</v>
       </c>
       <c r="C9">
         <v>44.98214285714285</v>
       </c>
       <c r="D9">
-        <v>42.18807339449541</v>
+        <v>47.56880733944954</v>
       </c>
       <c r="E9">
-        <v>69.70736041736043</v>
+        <v>69.90292041292041</v>
       </c>
       <c r="F9">
-        <v>28.03266603543893</v>
+        <v>29.45434870823752</v>
       </c>
       <c r="G9">
-        <v>36.19404881310598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>36.83998662654631</v>
+      </c>
+      <c r="H9">
+        <v>26.94972931167827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>32.87519623233909</v>
+        <v>33.35164835164835</v>
       </c>
       <c r="C10">
         <v>34.63318777292577</v>
       </c>
       <c r="D10">
-        <v>81.46823529411765</v>
+        <v>91.85882352941177</v>
       </c>
       <c r="E10">
-        <v>66.09438415257124</v>
+        <v>66.2798081507549</v>
       </c>
       <c r="F10">
-        <v>27.96363636363636</v>
+        <v>29.38181818181818</v>
       </c>
       <c r="G10">
-        <v>37.94257142857143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>38.61971428571428</v>
+      </c>
+      <c r="H10">
+        <v>28.48511278195489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>38.08072487644151</v>
+        <v>38.63261943986821</v>
       </c>
       <c r="C11">
         <v>37.00485436893204</v>
       </c>
       <c r="D11">
-        <v>57.39671875000001</v>
+        <v>64.71718750000001</v>
       </c>
       <c r="E11">
-        <v>68.1388196400147</v>
+        <v>68.32997918452308</v>
       </c>
       <c r="F11">
-        <v>43.22682397959183</v>
+        <v>45.41908163265305</v>
       </c>
       <c r="G11">
-        <v>37.10782058337919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>37.77006604292789</v>
+      </c>
+      <c r="H11">
+        <v>27.8850622406639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>34.75746268656716</v>
+        <v>35.26119402985074</v>
       </c>
       <c r="C12">
         <v>35.58333333333333</v>
       </c>
       <c r="D12">
-        <v>46.49094256259205</v>
+        <v>52.42047128129602</v>
       </c>
       <c r="E12">
-        <v>55.32600819882142</v>
+        <v>55.48122213681783</v>
       </c>
       <c r="F12">
-        <v>32.63058770138417</v>
+        <v>34.28545495802133</v>
       </c>
       <c r="G12">
-        <v>32.06095736724009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>32.63313388182498</v>
+      </c>
+      <c r="H12">
+        <v>33.62248213125406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>45471</v>
       </c>
       <c r="B13">
-        <v>35.01111111111111</v>
+        <v>35.51851851851852</v>
       </c>
       <c r="C13">
         <v>38.2896174863388</v>
       </c>
       <c r="D13">
-        <v>46.82176520994002</v>
+        <v>52.79348757497858</v>
       </c>
       <c r="E13">
-        <v>78.69201551667217</v>
+        <v>78.91278144602178</v>
       </c>
       <c r="F13">
-        <v>47.55874331550802</v>
+        <v>49.97069518716577</v>
       </c>
       <c r="G13">
-        <v>32.44220130718953</v>
+        <v>33.0211816993464</v>
+      </c>
+      <c r="H13">
+        <v>31.89103797468354</v>
       </c>
     </row>
   </sheetData>
@@ -1788,21 +1959,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1816,258 +1987,294 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>11.97668393782383</v>
+        <v>12.15025906735751</v>
       </c>
       <c r="C2">
         <v>8.742105263157896</v>
       </c>
       <c r="D2">
-        <v>26.17260179434093</v>
+        <v>29.51069703243617</v>
       </c>
       <c r="E2">
-        <v>6.874528502930204</v>
+        <v>6.893814597762386</v>
       </c>
       <c r="F2">
-        <v>22.90462365591398</v>
+        <v>24.06623655913979</v>
       </c>
       <c r="G2">
-        <v>8.303281039892425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8.451465710443749</v>
+      </c>
+      <c r="H2">
+        <v>8.164218009478677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>33.17307692307692</v>
+        <v>33.65384615384615</v>
       </c>
       <c r="C3">
         <v>2.311887254901961</v>
       </c>
       <c r="D3">
-        <v>3.103410852713182</v>
+        <v>3.499224806201553</v>
       </c>
       <c r="E3">
-        <v>21.33850340136054</v>
+        <v>21.39836734693877</v>
       </c>
       <c r="F3">
-        <v>-0.2072776280323509</v>
+        <v>-0.2177897574124046</v>
       </c>
       <c r="G3">
-        <v>6.888353702372399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7.011286843997127</v>
+      </c>
+      <c r="H3">
+        <v>6.248238482384824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-13.86764705882353</v>
+        <v>-14.06862745098039</v>
       </c>
       <c r="C4">
         <v>4.228323699421964</v>
       </c>
       <c r="D4">
-        <v>6.108064516129041</v>
+        <v>6.887096774193552</v>
       </c>
       <c r="E4">
-        <v>-3.465856394913985</v>
+        <v>-3.475579655946149</v>
       </c>
       <c r="F4">
-        <v>1.02637533875339</v>
+        <v>1.078428184281847</v>
       </c>
       <c r="G4">
-        <v>-2.617786396181387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-2.664504773269694</v>
+      </c>
+      <c r="H4">
+        <v>-1.41415025528811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>5.203278688524591</v>
+        <v>5.278688524590166</v>
       </c>
       <c r="C5">
         <v>1.002604166666671</v>
       </c>
       <c r="D5">
-        <v>0.07127799736494467</v>
+        <v>0.0803689064558526</v>
       </c>
       <c r="E5">
-        <v>12.66630503144656</v>
+        <v>12.70183962264151</v>
       </c>
       <c r="F5">
-        <v>4.678751484756503</v>
+        <v>4.916035370199289</v>
       </c>
       <c r="G5">
-        <v>0.4133160789388484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.4206923325784473</v>
+      </c>
+      <c r="H5">
+        <v>1.898843484965305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.275641025641026</v>
+        <v>-4.337606837606838</v>
       </c>
       <c r="C6">
         <v>11.7258883248731</v>
       </c>
       <c r="D6">
-        <v>1.423684210526318</v>
+        <v>1.60526315789474</v>
       </c>
       <c r="E6">
-        <v>-18.36185469514908</v>
+        <v>-18.41336782376501</v>
       </c>
       <c r="F6">
-        <v>-4.505965407695022</v>
+        <v>-4.7344864101659</v>
       </c>
       <c r="G6">
-        <v>-4.781367849153082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-4.866698625759025</v>
+      </c>
+      <c r="H6">
+        <v>-1.582171099928111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.365853658536587</v>
+        <v>3.41463414634147</v>
       </c>
       <c r="C7">
         <v>-4.344357976653697</v>
       </c>
       <c r="D7">
-        <v>-1.09587179487179</v>
+        <v>-1.235641025641023</v>
       </c>
       <c r="E7">
-        <v>15.76862580548479</v>
+        <v>15.81286377940955</v>
       </c>
       <c r="F7">
-        <v>-2.808290017326406</v>
+        <v>-2.950713048114089</v>
       </c>
       <c r="G7">
-        <v>2.730685543964228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2.779418777943363</v>
+      </c>
+      <c r="H7">
+        <v>0.9622035195103287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>5.111111111111114</v>
+        <v>5.185185185185183</v>
       </c>
       <c r="C8">
         <v>-5.403508771929822</v>
       </c>
       <c r="D8">
-        <v>-15.51782255953939</v>
+        <v>-17.49699031667103</v>
       </c>
       <c r="E8">
-        <v>7.523548901705738</v>
+        <v>7.544655785986023</v>
       </c>
       <c r="F8">
-        <v>2.42143781452193</v>
+        <v>2.544241552839686</v>
       </c>
       <c r="G8">
-        <v>1.031075120606481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1.049476223294285</v>
+      </c>
+      <c r="H8">
+        <v>-1.198819188191884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-6.143225806451611</v>
+        <v>-6.232258064516127</v>
       </c>
       <c r="C9">
         <v>6.482142857142854</v>
       </c>
       <c r="D9">
-        <v>-11.91192660550459</v>
+        <v>-13.43119266055046</v>
       </c>
       <c r="E9">
-        <v>-1.582639582639572</v>
+        <v>-1.587079587079586</v>
       </c>
       <c r="F9">
-        <v>-10.41733396456108</v>
+        <v>-10.94565129176248</v>
       </c>
       <c r="G9">
-        <v>2.574048813105982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>2.619986626546307</v>
+      </c>
+      <c r="H9">
+        <v>0.7497293116782693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.624803767660907</v>
+        <v>-1.64835164835165</v>
       </c>
       <c r="C10">
         <v>-3.866812227074234</v>
       </c>
       <c r="D10">
-        <v>27.36823529411765</v>
+        <v>30.85882352941177</v>
       </c>
       <c r="E10">
-        <v>-5.195615847428769</v>
+        <v>-5.210191849245092</v>
       </c>
       <c r="F10">
-        <v>-10.48636363636364</v>
+        <v>-11.01818181818182</v>
       </c>
       <c r="G10">
-        <v>4.322571428571429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4.399714285714282</v>
+      </c>
+      <c r="H10">
+        <v>2.285112781954886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.580724876441515</v>
+        <v>3.632619439868208</v>
       </c>
       <c r="C11">
         <v>-1.495145631067963</v>
       </c>
       <c r="D11">
-        <v>3.296718750000004</v>
+        <v>3.717187500000009</v>
       </c>
       <c r="E11">
-        <v>-3.151180359985304</v>
+        <v>-3.160020815476912</v>
       </c>
       <c r="F11">
-        <v>4.776823979591832</v>
+        <v>5.019081632653055</v>
       </c>
       <c r="G11">
-        <v>3.48782058337919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>3.550066042927895</v>
+      </c>
+      <c r="H11">
+        <v>1.6850622406639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>0.257462686567159</v>
+        <v>0.261194029850742</v>
       </c>
       <c r="C12">
         <v>-2.916666666666671</v>
       </c>
       <c r="D12">
-        <v>-7.609057437407955</v>
+        <v>-8.579528718703983</v>
       </c>
       <c r="E12">
-        <v>-15.96399180117859</v>
+        <v>-16.00877786318217</v>
       </c>
       <c r="F12">
-        <v>-5.819412298615838</v>
+        <v>-6.114545041978673</v>
       </c>
       <c r="G12">
-        <v>-1.559042632759912</v>
+        <v>-1.586866118175017</v>
+      </c>
+      <c r="H12">
+        <v>7.422482131254061</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2085,16 +2292,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2105,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>32.63</v>
+        <v>33.1</v>
       </c>
       <c r="D2">
-        <v>33.91</v>
+        <v>34.4</v>
       </c>
       <c r="E2">
-        <v>34.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2119,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>36.68</v>
@@ -2139,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>49.67</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>52.46</v>
+        <v>59.15</v>
       </c>
       <c r="E4">
-        <v>53.77</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2156,13 +2363,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>64.76000000000001</v>
+        <v>64.94</v>
       </c>
       <c r="D5">
-        <v>67.98999999999999</v>
+        <v>68.19</v>
       </c>
       <c r="E5">
-        <v>69.81999999999999</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2173,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>34.72</v>
+        <v>36.48</v>
       </c>
       <c r="D6">
-        <v>35.99</v>
+        <v>37.82</v>
       </c>
       <c r="E6">
-        <v>37.66</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2190,13 +2397,30 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>31.85</v>
+        <v>32.42</v>
       </c>
       <c r="D7">
-        <v>32.76</v>
+        <v>33.34</v>
       </c>
       <c r="E7">
-        <v>33.43</v>
+        <v>33.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>25.49</v>
+      </c>
+      <c r="D8">
+        <v>25.83</v>
+      </c>
+      <c r="E8">
+        <v>26.14</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2430,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,16 +2438,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2234,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.31</v>
+        <v>29.73</v>
       </c>
       <c r="D2">
-        <v>31.68</v>
+        <v>32.14</v>
       </c>
       <c r="E2">
-        <v>33.78</v>
+        <v>34.27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2248,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>33.89</v>
@@ -2268,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>47.01</v>
+        <v>53.01</v>
       </c>
       <c r="D4">
-        <v>49.51</v>
+        <v>55.83</v>
       </c>
       <c r="E4">
-        <v>51.68</v>
+        <v>58.27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2285,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>62.08</v>
+        <v>62.26</v>
       </c>
       <c r="D5">
-        <v>65.62</v>
+        <v>65.8</v>
       </c>
       <c r="E5">
-        <v>67.79000000000001</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2302,13 +2526,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>29.71</v>
+        <v>31.22</v>
       </c>
       <c r="D6">
-        <v>31.89</v>
+        <v>33.51</v>
       </c>
       <c r="E6">
-        <v>36.37</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2319,13 +2543,30 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>30.34</v>
+        <v>30.88</v>
       </c>
       <c r="D7">
-        <v>31.71</v>
+        <v>32.27</v>
       </c>
       <c r="E7">
-        <v>33.16</v>
+        <v>33.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>24.9</v>
+      </c>
+      <c r="D8">
+        <v>25.63</v>
+      </c>
+      <c r="E8">
+        <v>26.24</v>
       </c>
     </row>
   </sheetData>

--- a/3m_portfolio_returns_.xlsx
+++ b/3m_portfolio_returns_.xlsx
@@ -478,25 +478,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>157148.07</v>
+        <v>49665.05</v>
       </c>
       <c r="C2">
-        <v>-235940.35</v>
+        <v>499107.13</v>
       </c>
       <c r="D2">
-        <v>-323192.48</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>309691.31</v>
+        <v>475601.54</v>
       </c>
       <c r="F2">
-        <v>-180404.05</v>
+        <v>303136.96</v>
       </c>
       <c r="G2">
-        <v>-395220.77</v>
+        <v>122242.67</v>
       </c>
       <c r="H2">
-        <v>-667918.27</v>
+        <v>1449753.35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -504,25 +504,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>729028.28</v>
+        <v>137562.5</v>
       </c>
       <c r="C3">
-        <v>-51132.1</v>
+        <v>82041.64</v>
       </c>
       <c r="D3">
-        <v>-823524.27</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-103075.62</v>
+        <v>-91282.63</v>
       </c>
       <c r="F3">
-        <v>-154976</v>
+        <v>248080.91</v>
       </c>
       <c r="G3">
-        <v>-318864.59</v>
+        <v>78694.72</v>
       </c>
       <c r="H3">
-        <v>-722544.3</v>
+        <v>455097.14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -530,25 +530,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>2003216.5</v>
+        <v>-57506.52</v>
       </c>
       <c r="C4">
-        <v>42316.05</v>
+        <v>268365.69</v>
       </c>
       <c r="D4">
-        <v>279112.78</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-53951.25</v>
+        <v>16437.29</v>
       </c>
       <c r="F4">
-        <v>18926.83</v>
+        <v>-121796.91</v>
       </c>
       <c r="G4">
-        <v>12161.83</v>
+        <v>-91376.05</v>
       </c>
       <c r="H4">
-        <v>2301782.74</v>
+        <v>14123.50000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -556,25 +556,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-23641.46</v>
+        <v>21577.02</v>
       </c>
       <c r="C5">
-        <v>-143973.02</v>
+        <v>-106137.74</v>
       </c>
       <c r="D5">
-        <v>-523539.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>129437.91</v>
+        <v>333888.92</v>
       </c>
       <c r="F5">
-        <v>-38459.85</v>
+        <v>-3868.38</v>
       </c>
       <c r="G5">
-        <v>-141510.94</v>
+        <v>-20104.16</v>
       </c>
       <c r="H5">
-        <v>-741686.5599999998</v>
+        <v>225355.66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -582,25 +582,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>436065.88</v>
+        <v>-17730.28</v>
       </c>
       <c r="C6">
-        <v>-103111.65</v>
+        <v>-22599.6</v>
       </c>
       <c r="D6">
-        <v>-303155.52</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-178159.78</v>
+        <v>-302833.78</v>
       </c>
       <c r="F6">
-        <v>71917.5</v>
+        <v>-204865.77</v>
       </c>
       <c r="G6">
-        <v>20976.19</v>
+        <v>-94392.88</v>
       </c>
       <c r="H6">
-        <v>-55467.38000000003</v>
+        <v>-642422.3100000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -608,25 +608,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-70785.87</v>
+        <v>13957.56</v>
       </c>
       <c r="C7">
-        <v>-167282.21</v>
+        <v>-177222.25</v>
       </c>
       <c r="D7">
-        <v>-630853.38</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-166796.77</v>
+        <v>-257105.44</v>
       </c>
       <c r="F7">
-        <v>-80247.31</v>
+        <v>86302.46000000001</v>
       </c>
       <c r="G7">
-        <v>-100978.59</v>
+        <v>-41231.02</v>
       </c>
       <c r="H7">
-        <v>-1216944.13</v>
+        <v>-375298.69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -634,25 +634,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-26044.02</v>
+        <v>21194.81</v>
       </c>
       <c r="C8">
-        <v>312403.58</v>
+        <v>-164160.97</v>
       </c>
       <c r="D8">
-        <v>-345643.12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>12201.43</v>
+        <v>144645.77</v>
       </c>
       <c r="F8">
-        <v>-49637.18</v>
+        <v>20169.16</v>
       </c>
       <c r="G8">
-        <v>1055.94</v>
+        <v>-87338.42999999999</v>
       </c>
       <c r="H8">
-        <v>-95663.37</v>
+        <v>-65489.66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -660,25 +660,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>713314.5699999999</v>
+        <v>-25474.8</v>
       </c>
       <c r="C9">
-        <v>165277.14</v>
+        <v>-206644.7</v>
       </c>
       <c r="D9">
-        <v>-18685.85</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-113781.68</v>
+        <v>-288245.21</v>
       </c>
       <c r="F9">
-        <v>-77430.19</v>
+        <v>80207.59</v>
       </c>
       <c r="G9">
-        <v>-91546.77</v>
+        <v>-45986.62</v>
       </c>
       <c r="H9">
-        <v>577147.22</v>
+        <v>-486143.74</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -686,25 +686,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>66623.46000000001</v>
+        <v>-6737.76</v>
       </c>
       <c r="C10">
-        <v>-283343.59</v>
+        <v>484787.61</v>
       </c>
       <c r="D10">
-        <v>552644.75</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-112677.12</v>
+        <v>-287794.41</v>
       </c>
       <c r="F10">
-        <v>-108864.37</v>
+        <v>148244.11</v>
       </c>
       <c r="G10">
-        <v>-157826.74</v>
+        <v>-11350.08</v>
       </c>
       <c r="H10">
-        <v>-43443.60999999999</v>
+        <v>327149.47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -712,25 +712,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-65370.65</v>
+        <v>14848.59</v>
       </c>
       <c r="C11">
-        <v>-45103.74</v>
+        <v>94100.10000000001</v>
       </c>
       <c r="D11">
-        <v>229352.13</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>134505.13</v>
+        <v>341003.19</v>
       </c>
       <c r="F11">
-        <v>-93860.24000000001</v>
+        <v>115763.24</v>
       </c>
       <c r="G11">
-        <v>-132391.2</v>
+        <v>-24941.9</v>
       </c>
       <c r="H11">
-        <v>27131.42999999999</v>
+        <v>540773.22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -738,25 +738,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>-88615.09</v>
+        <v>1067.65</v>
       </c>
       <c r="C12">
-        <v>11289.02</v>
+        <v>-233156.02</v>
       </c>
       <c r="D12">
-        <v>-89866.13</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-173751.17</v>
+        <v>-311521.32</v>
       </c>
       <c r="F12">
-        <v>-2011.02</v>
+        <v>-80613.5</v>
       </c>
       <c r="G12">
-        <v>-365694.28</v>
+        <v>105383.88</v>
       </c>
       <c r="H12">
-        <v>-708648.67</v>
+        <v>-518839.3099999999</v>
       </c>
     </row>
   </sheetData>
@@ -800,25 +800,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-88615.09</v>
+        <v>-57506.52</v>
       </c>
       <c r="C2">
-        <v>-283343.59</v>
+        <v>-233156.02</v>
       </c>
       <c r="D2">
-        <v>-823524.27</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-178159.78</v>
+        <v>-311521.32</v>
       </c>
       <c r="F2">
-        <v>-180404.05</v>
+        <v>-204865.77</v>
       </c>
       <c r="G2">
-        <v>-395220.77</v>
+        <v>-94392.88</v>
       </c>
       <c r="H2">
-        <v>-1216944.13</v>
+        <v>-642422.3100000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,25 +826,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-88615.09</v>
+        <v>-57506.52</v>
       </c>
       <c r="C3">
-        <v>-283343.59</v>
+        <v>-233156.02</v>
       </c>
       <c r="D3">
-        <v>-823524.27</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-178159.78</v>
+        <v>-311521.32</v>
       </c>
       <c r="F3">
-        <v>-180404.05</v>
+        <v>-204865.77</v>
       </c>
       <c r="G3">
-        <v>-395220.77</v>
+        <v>-94392.88</v>
       </c>
       <c r="H3">
-        <v>-1216944.13</v>
+        <v>-642422.3100000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,25 +852,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-26044.02</v>
+        <v>-6737.76</v>
       </c>
       <c r="C4">
-        <v>-143973.02</v>
+        <v>-164160.97</v>
       </c>
       <c r="D4">
-        <v>-345643.12</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-113781.68</v>
+        <v>-287794.41</v>
       </c>
       <c r="F4">
-        <v>-93860.24000000001</v>
+        <v>-3868.38</v>
       </c>
       <c r="G4">
-        <v>-157826.74</v>
+        <v>-45986.62</v>
       </c>
       <c r="H4">
-        <v>-708648.67</v>
+        <v>-375298.69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -878,25 +878,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>436065.88</v>
+        <v>21194.81</v>
       </c>
       <c r="C5">
-        <v>11289.02</v>
+        <v>94100.10000000001</v>
       </c>
       <c r="D5">
-        <v>-18685.85</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12201.43</v>
+        <v>144645.77</v>
       </c>
       <c r="F5">
-        <v>-38459.85</v>
+        <v>115763.24</v>
       </c>
       <c r="G5">
-        <v>-91546.77</v>
+        <v>-11350.08</v>
       </c>
       <c r="H5">
-        <v>-43443.60999999999</v>
+        <v>327149.47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -904,25 +904,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2003216.5</v>
+        <v>137562.5</v>
       </c>
       <c r="C6">
-        <v>312403.58</v>
+        <v>499107.13</v>
       </c>
       <c r="D6">
-        <v>552644.75</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>309691.31</v>
+        <v>475601.54</v>
       </c>
       <c r="F6">
-        <v>71917.5</v>
+        <v>303136.96</v>
       </c>
       <c r="G6">
-        <v>20976.19</v>
+        <v>122242.67</v>
       </c>
       <c r="H6">
-        <v>2301782.74</v>
+        <v>1449753.35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -930,25 +930,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2003216.5</v>
+        <v>137562.5</v>
       </c>
       <c r="C7">
-        <v>312403.58</v>
+        <v>499107.13</v>
       </c>
       <c r="D7">
-        <v>552644.75</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>309691.31</v>
+        <v>475601.54</v>
       </c>
       <c r="F7">
-        <v>71917.5</v>
+        <v>303136.96</v>
       </c>
       <c r="G7">
-        <v>20976.19</v>
+        <v>122242.67</v>
       </c>
       <c r="H7">
-        <v>2301782.74</v>
+        <v>1449753.35</v>
       </c>
     </row>
   </sheetData>
@@ -995,25 +995,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>668264.248704663</v>
+        <v>636538.360103627</v>
       </c>
       <c r="C2">
-        <v>931287.2389398208</v>
+        <v>887061.7000424123</v>
       </c>
       <c r="D2">
-        <v>185631.8533198847</v>
+        <v>176819.0207297963</v>
       </c>
       <c r="E2">
-        <v>1146734.892676645</v>
+        <v>1092262.067940408</v>
       </c>
       <c r="F2">
-        <v>475423.6211904699</v>
+        <v>452851.3310455068</v>
       </c>
       <c r="G2">
-        <v>599846.4743448345</v>
+        <v>571369.5466971615</v>
       </c>
       <c r="H2">
-        <v>4007188.329176318</v>
+        <v>3816902.026558912</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1021,25 +1021,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>1850961.538461538</v>
+        <v>1763087.019230769</v>
       </c>
       <c r="C3">
-        <v>110427.1920319381</v>
+        <v>105183.1578904419</v>
       </c>
       <c r="D3">
-        <v>576200.3796738691</v>
+        <v>548845.3897106936</v>
       </c>
       <c r="E3">
-        <v>-10377.48937099757</v>
+        <v>-9884.532225175361</v>
       </c>
       <c r="F3">
-        <v>394408.6735699714</v>
+        <v>375682.8328277319</v>
       </c>
       <c r="G3">
-        <v>459074.4416884553</v>
+        <v>437280.4823672194</v>
       </c>
       <c r="H3">
-        <v>3380694.736054774</v>
+        <v>3220194.349801681</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1047,25 +1047,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-773774.5098039217</v>
+        <v>-737039.5147058823</v>
       </c>
       <c r="C4">
-        <v>217340.3539774195</v>
+        <v>207019.1621078229</v>
       </c>
       <c r="D4">
-        <v>-93587.99598463015</v>
+        <v>-89144.92586329112</v>
       </c>
       <c r="E4">
-        <v>51386.14943482948</v>
+        <v>48945.17660849456</v>
       </c>
       <c r="F4">
-        <v>-149887.4338946655</v>
+        <v>-142771.0381243365</v>
       </c>
       <c r="G4">
-        <v>-103901.3220670459</v>
+        <v>-98968.74255287532</v>
       </c>
       <c r="H4">
-        <v>-852424.7583380144</v>
+        <v>-811959.8825300678</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1073,25 +1073,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>290327.8688524591</v>
+        <v>276544.5344262297</v>
       </c>
       <c r="C5">
-        <v>2536.251072199936</v>
+        <v>2415.808027608425</v>
       </c>
       <c r="D5">
-        <v>342026.3188522959</v>
+        <v>325788.6924129623</v>
       </c>
       <c r="E5">
-        <v>234244.7386315218</v>
+        <v>223117.5176196306</v>
       </c>
       <c r="F5">
-        <v>23665.37107455287</v>
+        <v>22541.78024213835</v>
       </c>
       <c r="G5">
-        <v>139513.002772182</v>
+        <v>132889.8052445275</v>
       </c>
       <c r="H5">
-        <v>1032313.551255212</v>
+        <v>983298.1379730969</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1099,25 +1099,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-238568.3760683761</v>
+        <v>-227242.326923077</v>
       </c>
       <c r="C6">
-        <v>50658.27799473694</v>
+        <v>48252.5866567107</v>
       </c>
       <c r="D6">
-        <v>-495822.3849094652</v>
+        <v>-472283.3230810211</v>
       </c>
       <c r="E6">
-        <v>-225594.0912115213</v>
+        <v>-214877.797959633</v>
       </c>
       <c r="F6">
-        <v>-273768.3099207125</v>
+        <v>-260770.2647067353</v>
       </c>
       <c r="G6">
-        <v>-116246.2534685264</v>
+        <v>-110727.6144651848</v>
       </c>
       <c r="H6">
-        <v>-1299341.137583865</v>
+        <v>-1237648.74047894</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1125,25 +1125,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>187804.8780487808</v>
+        <v>178888.8292682929</v>
       </c>
       <c r="C7">
-        <v>-38993.88475389735</v>
+        <v>-37142.11926755004</v>
       </c>
       <c r="D7">
-        <v>425797.8174550043</v>
+        <v>405583.1570109825</v>
       </c>
       <c r="E7">
-        <v>-140598.8677221592</v>
+        <v>-133920.0638168679</v>
       </c>
       <c r="F7">
-        <v>156351.7365492859</v>
+        <v>148928.4268844819</v>
       </c>
       <c r="G7">
-        <v>70695.61201211934</v>
+        <v>67339.43019830466</v>
       </c>
       <c r="H7">
-        <v>661057.2915891338</v>
+        <v>629677.6602776442</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1151,25 +1151,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>285185.1851851851</v>
+        <v>271646</v>
       </c>
       <c r="C8">
-        <v>-552163.2980698247</v>
+        <v>-525941.8291229208</v>
       </c>
       <c r="D8">
-        <v>203157.2529768591</v>
+        <v>193512.4057810386</v>
       </c>
       <c r="E8">
-        <v>121230.86037443</v>
+        <v>115472.0860910511</v>
       </c>
       <c r="F8">
-        <v>59036.59832818154</v>
+        <v>56233.64288541543</v>
       </c>
       <c r="G8">
-        <v>-88080.38474462007</v>
+        <v>-83898.8835591853</v>
       </c>
       <c r="H8">
-        <v>28366.21405021104</v>
+        <v>27023.42207539904</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1177,25 +1177,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-342774.193548387</v>
+        <v>-326500.9664516127</v>
       </c>
       <c r="C9">
-        <v>-423856.4177174312</v>
+        <v>-403728.0645038533</v>
       </c>
       <c r="D9">
-        <v>-42735.77725913417</v>
+        <v>-40706.905361039</v>
       </c>
       <c r="E9">
-        <v>-521550.60590761</v>
+        <v>-496775.625283824</v>
       </c>
       <c r="F9">
-        <v>147383.137095855</v>
+        <v>140385.6410003258</v>
       </c>
       <c r="G9">
-        <v>55084.57562023215</v>
+        <v>52469.50736271936</v>
       </c>
       <c r="H9">
-        <v>-1128449.281716475</v>
+        <v>-1074856.413237284</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1203,25 +1203,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-90659.34065934073</v>
+        <v>-86355.28257456822</v>
       </c>
       <c r="C10">
-        <v>973830.8969811765</v>
+        <v>927585.0187890001</v>
       </c>
       <c r="D10">
-        <v>-140296.4288365767</v>
+        <v>-133635.8858413322</v>
       </c>
       <c r="E10">
-        <v>-525006.6213599999</v>
+        <v>-500067.4712099999</v>
       </c>
       <c r="F10">
-        <v>247498.8563620284</v>
+        <v>235748.0393067857</v>
       </c>
       <c r="G10">
-        <v>167893.2194295338</v>
+        <v>159922.7081958858</v>
       </c>
       <c r="H10">
-        <v>633260.5819168214</v>
+        <v>603197.1266657714</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1229,25 +1229,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>199794.0691927514</v>
+        <v>190308.8327841845</v>
       </c>
       <c r="C11">
-        <v>117305.5749815628</v>
+        <v>111734.8959769453</v>
       </c>
       <c r="D11">
-        <v>-85090.84661151071</v>
+        <v>-81051.17684188408</v>
       </c>
       <c r="E11">
-        <v>239154.8019239385</v>
+        <v>227794.3404142829</v>
       </c>
       <c r="F11">
-        <v>199703.2599337712</v>
+        <v>190221.695019448</v>
       </c>
       <c r="G11">
-        <v>123805.9349885477</v>
+        <v>117928.4099820499</v>
       </c>
       <c r="H11">
-        <v>794672.7944090609</v>
+        <v>756936.9973350265</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1255,25 +1255,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>14365.67164179081</v>
+        <v>13683.66044776102</v>
       </c>
       <c r="C12">
-        <v>-270749.4710499266</v>
+        <v>-257891.9543110495</v>
       </c>
       <c r="D12">
-        <v>-431073.2558855623</v>
+        <v>-410608.1451287502</v>
       </c>
       <c r="E12">
-        <v>-291352.6647695577</v>
+        <v>-277512.6719815272</v>
       </c>
       <c r="F12">
-        <v>-89266.60322539706</v>
+        <v>-85028.37950564682</v>
       </c>
       <c r="G12">
-        <v>545349.1972104483</v>
+        <v>519459.456592</v>
       </c>
       <c r="H12">
-        <v>-522727.1260782045</v>
+        <v>-497898.0338872127</v>
       </c>
     </row>
   </sheetData>
@@ -1320,25 +1320,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>-511116.178704663</v>
+        <v>-586873.3101036269</v>
       </c>
       <c r="C2">
-        <v>-1167227.588939821</v>
+        <v>-387954.5700424123</v>
       </c>
       <c r="D2">
-        <v>-508824.3333198847</v>
+        <v>-176819.0207297963</v>
       </c>
       <c r="E2">
-        <v>-837043.5826766451</v>
+        <v>-616660.5279404083</v>
       </c>
       <c r="F2">
-        <v>-655827.6711904699</v>
+        <v>-149714.3710455067</v>
       </c>
       <c r="G2">
-        <v>-995067.2443448345</v>
+        <v>-449126.8766971615</v>
       </c>
       <c r="H2">
-        <v>-4675106.599176317</v>
+        <v>-2367148.676558912</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1346,25 +1346,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>-1121933.258461538</v>
+        <v>-1625524.519230769</v>
       </c>
       <c r="C3">
-        <v>-161559.2920319381</v>
+        <v>-23141.51789044187</v>
       </c>
       <c r="D3">
-        <v>-1399724.649673869</v>
+        <v>-548845.3897106936</v>
       </c>
       <c r="E3">
-        <v>-92698.13062900242</v>
+        <v>-81398.09777482465</v>
       </c>
       <c r="F3">
-        <v>-549384.6735699715</v>
+        <v>-127601.9228277319</v>
       </c>
       <c r="G3">
-        <v>-777939.0316884553</v>
+        <v>-358585.7623672194</v>
       </c>
       <c r="H3">
-        <v>-4103239.036054774</v>
+        <v>-2765097.20980168</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1372,25 +1372,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>2776991.009803922</v>
+        <v>679532.9947058823</v>
       </c>
       <c r="C4">
-        <v>-175024.3039774194</v>
+        <v>61346.52789217714</v>
       </c>
       <c r="D4">
-        <v>372700.7759846302</v>
+        <v>89144.92586329112</v>
       </c>
       <c r="E4">
-        <v>-105337.3994348295</v>
+        <v>-32507.88660849455</v>
       </c>
       <c r="F4">
-        <v>168814.2638946655</v>
+        <v>20974.12812433648</v>
       </c>
       <c r="G4">
-        <v>116063.1520670459</v>
+        <v>7592.69255287532</v>
       </c>
       <c r="H4">
-        <v>3154207.498338015</v>
+        <v>826083.3825300678</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1398,25 +1398,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-313969.3288524591</v>
+        <v>-254967.5144262297</v>
       </c>
       <c r="C5">
-        <v>-146509.2710721999</v>
+        <v>-108553.5480276084</v>
       </c>
       <c r="D5">
-        <v>-865565.5188522958</v>
+        <v>-325788.6924129623</v>
       </c>
       <c r="E5">
-        <v>-104806.8286315218</v>
+        <v>110771.4023803694</v>
       </c>
       <c r="F5">
-        <v>-62125.22107455286</v>
+        <v>-26410.16024213835</v>
       </c>
       <c r="G5">
-        <v>-281023.9427721819</v>
+        <v>-152993.9652445275</v>
       </c>
       <c r="H5">
-        <v>-1774000.111255212</v>
+        <v>-757942.477973097</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1424,25 +1424,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>674634.2560683761</v>
+        <v>209512.046923077</v>
       </c>
       <c r="C6">
-        <v>-153769.9279947369</v>
+        <v>-70852.18665671069</v>
       </c>
       <c r="D6">
-        <v>192666.8649094652</v>
+        <v>472283.3230810211</v>
       </c>
       <c r="E6">
-        <v>47434.31121152127</v>
+        <v>-87955.98204036706</v>
       </c>
       <c r="F6">
-        <v>345685.8099207125</v>
+        <v>55904.49470673531</v>
       </c>
       <c r="G6">
-        <v>137222.4434685264</v>
+        <v>16334.73446518477</v>
       </c>
       <c r="H6">
-        <v>1243873.757583864</v>
+        <v>595226.4304789403</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1450,25 +1450,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-258590.7480487808</v>
+        <v>-164931.2692682929</v>
       </c>
       <c r="C7">
-        <v>-128288.3252461026</v>
+        <v>-140080.13073245</v>
       </c>
       <c r="D7">
-        <v>-1056651.197455004</v>
+        <v>-405583.1570109825</v>
       </c>
       <c r="E7">
-        <v>-26197.90227784077</v>
+        <v>-123185.3761831321</v>
       </c>
       <c r="F7">
-        <v>-236599.0465492858</v>
+        <v>-62625.96688448188</v>
       </c>
       <c r="G7">
-        <v>-171674.2020121193</v>
+        <v>-108570.4501983047</v>
       </c>
       <c r="H7">
-        <v>-1878001.421589134</v>
+        <v>-1004976.350277644</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1476,25 +1476,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-311229.2051851851</v>
+        <v>-250451.19</v>
       </c>
       <c r="C8">
-        <v>864566.8780698248</v>
+        <v>361780.8591229208</v>
       </c>
       <c r="D8">
-        <v>-548800.3729768591</v>
+        <v>-193512.4057810386</v>
       </c>
       <c r="E8">
-        <v>-109029.4303744301</v>
+        <v>29173.68390894892</v>
       </c>
       <c r="F8">
-        <v>-108673.7783281815</v>
+        <v>-36064.48288541543</v>
       </c>
       <c r="G8">
-        <v>89136.32474462007</v>
+        <v>-3439.546440814695</v>
       </c>
       <c r="H8">
-        <v>-124029.584050211</v>
+        <v>-92513.08207539904</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1502,25 +1502,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>1056088.763548387</v>
+        <v>301026.1664516127</v>
       </c>
       <c r="C9">
-        <v>589133.5577174312</v>
+        <v>197083.3645038533</v>
       </c>
       <c r="D9">
-        <v>24049.92725913417</v>
+        <v>40706.905361039</v>
       </c>
       <c r="E9">
-        <v>407768.92590761</v>
+        <v>208530.415283824</v>
       </c>
       <c r="F9">
-        <v>-224813.327095855</v>
+        <v>-60178.0510003258</v>
       </c>
       <c r="G9">
-        <v>-146631.3456202322</v>
+        <v>-98456.12736271936</v>
       </c>
       <c r="H9">
-        <v>1705596.501716475</v>
+        <v>588712.6732372837</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1528,25 +1528,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>157282.8006593407</v>
+        <v>79617.52257456823</v>
       </c>
       <c r="C10">
-        <v>-1257174.486981177</v>
+        <v>-442797.4087890001</v>
       </c>
       <c r="D10">
-        <v>692941.1788365766</v>
+        <v>133635.8858413322</v>
       </c>
       <c r="E10">
-        <v>412329.5013599999</v>
+        <v>212273.0612099999</v>
       </c>
       <c r="F10">
-        <v>-356363.2263620284</v>
+        <v>-87503.92930678572</v>
       </c>
       <c r="G10">
-        <v>-325719.9594295338</v>
+        <v>-171272.7881958857</v>
       </c>
       <c r="H10">
-        <v>-676704.1919168214</v>
+        <v>-276047.6566657714</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1554,25 +1554,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-265164.7191927515</v>
+        <v>-175460.2427841845</v>
       </c>
       <c r="C11">
-        <v>-162409.3149815628</v>
+        <v>-17634.79597694526</v>
       </c>
       <c r="D11">
-        <v>314442.9766115107</v>
+        <v>81051.17684188408</v>
       </c>
       <c r="E11">
-        <v>-104649.6719239385</v>
+        <v>113208.8495857171</v>
       </c>
       <c r="F11">
-        <v>-293563.4999337711</v>
+        <v>-74458.455019448</v>
       </c>
       <c r="G11">
-        <v>-256197.1349885477</v>
+        <v>-142870.3099820499</v>
       </c>
       <c r="H11">
-        <v>-767541.3644090609</v>
+        <v>-216163.7773350265</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1580,25 +1580,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>-102980.7616417908</v>
+        <v>-12616.01044776102</v>
       </c>
       <c r="C12">
-        <v>282038.4910499266</v>
+        <v>24735.93431104947</v>
       </c>
       <c r="D12">
-        <v>341207.1258855623</v>
+        <v>410608.1451287502</v>
       </c>
       <c r="E12">
-        <v>117601.4947695576</v>
+        <v>-34008.64801847283</v>
       </c>
       <c r="F12">
-        <v>87255.58322539706</v>
+        <v>4414.879505646823</v>
       </c>
       <c r="G12">
-        <v>-911043.4772104484</v>
+        <v>-414075.576592</v>
       </c>
       <c r="H12">
-        <v>-185921.5439217956</v>
+        <v>-20941.27611278719</v>
       </c>
     </row>
   </sheetData>
@@ -1645,25 +1645,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>47.15025906735751</v>
+        <v>47.82383419689119</v>
       </c>
       <c r="C2">
         <v>47.2421052631579</v>
       </c>
       <c r="D2">
-        <v>90.51069703243617</v>
+        <v>92.06866804692892</v>
       </c>
       <c r="E2">
-        <v>78.38381459776238</v>
+        <v>72.93455514118273</v>
       </c>
       <c r="F2">
-        <v>64.46623655913979</v>
+        <v>68.05655913978494</v>
       </c>
       <c r="G2">
-        <v>42.67146571044375</v>
+        <v>43.45705961452264</v>
       </c>
       <c r="H2">
-        <v>34.36421800947868</v>
+        <v>34.6790047393365</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1671,25 +1671,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>68.65384615384615</v>
+        <v>69.63461538461539</v>
       </c>
       <c r="C3">
         <v>40.81188725490196</v>
       </c>
       <c r="D3">
-        <v>64.49922480620155</v>
+        <v>65.60945736434108</v>
       </c>
       <c r="E3">
-        <v>92.88836734693876</v>
+        <v>86.43074829931972</v>
       </c>
       <c r="F3">
-        <v>40.18221024258759</v>
+        <v>42.42008086253369</v>
       </c>
       <c r="G3">
-        <v>41.23128684399713</v>
+        <v>41.99036664270309</v>
       </c>
       <c r="H3">
-        <v>32.44823848238482</v>
+        <v>32.74547425474255</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1697,25 +1697,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>20.93137254901961</v>
+        <v>21.23039215686275</v>
       </c>
       <c r="C4">
         <v>42.72832369942196</v>
       </c>
       <c r="D4">
-        <v>67.88709677419355</v>
+        <v>69.05564516129033</v>
       </c>
       <c r="E4">
-        <v>68.01442034405385</v>
+        <v>63.28604338070306</v>
       </c>
       <c r="F4">
-        <v>41.47842818428185</v>
+        <v>43.7884891598916</v>
       </c>
       <c r="G4">
-        <v>31.5554952267303</v>
+        <v>32.13644093078759</v>
       </c>
       <c r="H4">
-        <v>24.78584974471189</v>
+        <v>25.01289569657185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1723,25 +1723,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>40.27868852459017</v>
+        <v>40.85409836065574</v>
       </c>
       <c r="C5">
         <v>39.50260416666667</v>
       </c>
       <c r="D5">
-        <v>61.08036890645585</v>
+        <v>62.13175230566534</v>
       </c>
       <c r="E5">
-        <v>84.19183962264151</v>
+        <v>78.33880503144654</v>
       </c>
       <c r="F5">
-        <v>45.31603537019929</v>
+        <v>47.83982446878712</v>
       </c>
       <c r="G5">
-        <v>34.64069233257845</v>
+        <v>35.27843739890003</v>
       </c>
       <c r="H5">
-        <v>28.0988434849653</v>
+        <v>28.35623747108713</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1749,25 +1749,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>30.66239316239316</v>
+        <v>31.10042735042735</v>
       </c>
       <c r="C6">
         <v>50.2258883248731</v>
       </c>
       <c r="D6">
-        <v>62.60526315789474</v>
+        <v>63.68289473684211</v>
       </c>
       <c r="E6">
-        <v>53.07663217623498</v>
+        <v>49.3867334223409</v>
       </c>
       <c r="F6">
-        <v>35.6655135898341</v>
+        <v>37.65183551006</v>
       </c>
       <c r="G6">
-        <v>29.35330137424097</v>
+        <v>29.89370405880473</v>
       </c>
       <c r="H6">
-        <v>24.61782890007189</v>
+        <v>24.84333572969087</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1775,25 +1775,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>38.41463414634147</v>
+        <v>38.96341463414635</v>
       </c>
       <c r="C7">
         <v>34.1556420233463</v>
       </c>
       <c r="D7">
-        <v>59.76435897435898</v>
+        <v>60.79308974358974</v>
       </c>
       <c r="E7">
-        <v>87.30286377940955</v>
+        <v>81.23355012737898</v>
       </c>
       <c r="F7">
-        <v>37.44928695188591</v>
+        <v>39.53495268559243</v>
       </c>
       <c r="G7">
-        <v>36.99941877794336</v>
+        <v>37.68058867362146</v>
       </c>
       <c r="H7">
-        <v>27.16220351951033</v>
+        <v>27.41101759755165</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1801,25 +1801,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>40.18518518518518</v>
+        <v>40.75925925925926</v>
       </c>
       <c r="C8">
         <v>33.09649122807018</v>
       </c>
       <c r="D8">
-        <v>43.50300968332897</v>
+        <v>44.25183198115676</v>
       </c>
       <c r="E8">
-        <v>79.03465578598602</v>
+        <v>73.54014971162107</v>
       </c>
       <c r="F8">
-        <v>42.94424155283969</v>
+        <v>45.33593817397556</v>
       </c>
       <c r="G8">
-        <v>35.26947622329428</v>
+        <v>35.91879738111648</v>
       </c>
       <c r="H8">
-        <v>25.00118081180812</v>
+        <v>25.23019926199262</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1827,25 +1827,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>28.76774193548387</v>
+        <v>29.17870967741936</v>
       </c>
       <c r="C9">
         <v>44.98214285714285</v>
       </c>
       <c r="D9">
-        <v>47.56880733944954</v>
+        <v>48.38761467889908</v>
       </c>
       <c r="E9">
-        <v>69.90292041292041</v>
+        <v>65.04325452325452</v>
       </c>
       <c r="F9">
-        <v>29.45434870823752</v>
+        <v>31.09475179223589</v>
       </c>
       <c r="G9">
-        <v>36.83998662654631</v>
+        <v>37.51822133065864</v>
       </c>
       <c r="H9">
-        <v>26.94972931167827</v>
+        <v>27.19659706109822</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1853,25 +1853,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>33.35164835164835</v>
+        <v>33.82810047095762</v>
       </c>
       <c r="C10">
         <v>34.63318777292577</v>
       </c>
       <c r="D10">
-        <v>91.85882352941177</v>
+        <v>93.44</v>
       </c>
       <c r="E10">
-        <v>66.2798081507549</v>
+        <v>61.67202179589056</v>
       </c>
       <c r="F10">
-        <v>29.38181818181818</v>
+        <v>31.01818181818182</v>
       </c>
       <c r="G10">
-        <v>38.61971428571428</v>
+        <v>39.33071428571429</v>
       </c>
       <c r="H10">
-        <v>28.48511278195489</v>
+        <v>28.74604511278196</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1879,25 +1879,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>38.63261943986821</v>
+        <v>39.18451400329489</v>
       </c>
       <c r="C11">
         <v>37.00485436893204</v>
       </c>
       <c r="D11">
-        <v>64.71718750000001</v>
+        <v>65.831171875</v>
       </c>
       <c r="E11">
-        <v>68.32997918452308</v>
+        <v>63.57966450348965</v>
       </c>
       <c r="F11">
-        <v>45.41908163265305</v>
+        <v>47.94860969387754</v>
       </c>
       <c r="G11">
-        <v>37.77006604292789</v>
+        <v>38.46542377545404</v>
       </c>
       <c r="H11">
-        <v>27.8850622406639</v>
+        <v>28.14049792531121</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1905,25 +1905,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>35.26119402985074</v>
+        <v>35.76492537313433</v>
       </c>
       <c r="C12">
         <v>35.58333333333333</v>
       </c>
       <c r="D12">
-        <v>52.42047128129602</v>
+        <v>53.32279086892488</v>
       </c>
       <c r="E12">
-        <v>55.48122213681783</v>
+        <v>51.62415577760697</v>
       </c>
       <c r="F12">
-        <v>34.28545495802133</v>
+        <v>36.19491717721806</v>
       </c>
       <c r="G12">
-        <v>32.63313388182498</v>
+        <v>33.23391922213912</v>
       </c>
       <c r="H12">
-        <v>33.62248213125406</v>
+        <v>33.93047433398311</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1931,25 +1931,25 @@
         <v>45471</v>
       </c>
       <c r="B13">
-        <v>35.51851851851852</v>
+        <v>36.02592592592593</v>
       </c>
       <c r="C13">
         <v>38.2896174863388</v>
       </c>
       <c r="D13">
-        <v>52.79348757497858</v>
+        <v>53.70222793487574</v>
       </c>
       <c r="E13">
-        <v>78.91278144602178</v>
+        <v>73.42674810168371</v>
       </c>
       <c r="F13">
-        <v>49.97069518716577</v>
+        <v>52.7537165775401</v>
       </c>
       <c r="G13">
-        <v>33.0211816993464</v>
+        <v>33.62911111111111</v>
       </c>
       <c r="H13">
-        <v>31.89103797468354</v>
+        <v>32.18316962025316</v>
       </c>
     </row>
   </sheetData>
@@ -1996,25 +1996,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>12.15025906735751</v>
+        <v>12.32383419689119</v>
       </c>
       <c r="C2">
         <v>8.742105263157896</v>
       </c>
       <c r="D2">
-        <v>29.51069703243617</v>
+        <v>30.01866804692892</v>
       </c>
       <c r="E2">
-        <v>6.893814597762386</v>
+        <v>6.414555141182731</v>
       </c>
       <c r="F2">
-        <v>24.06623655913979</v>
+        <v>25.40655913978494</v>
       </c>
       <c r="G2">
-        <v>8.451465710443749</v>
+        <v>8.60705961452264</v>
       </c>
       <c r="H2">
-        <v>8.164218009478677</v>
+        <v>8.239004739336497</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2022,25 +2022,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>33.65384615384615</v>
+        <v>34.13461538461539</v>
       </c>
       <c r="C3">
         <v>2.311887254901961</v>
       </c>
       <c r="D3">
-        <v>3.499224806201553</v>
+        <v>3.559457364341085</v>
       </c>
       <c r="E3">
-        <v>21.39836734693877</v>
+        <v>19.91074829931972</v>
       </c>
       <c r="F3">
-        <v>-0.2177897574124046</v>
+        <v>-0.229919137466311</v>
       </c>
       <c r="G3">
-        <v>7.011286843997127</v>
+        <v>7.140366642703093</v>
       </c>
       <c r="H3">
-        <v>6.248238482384824</v>
+        <v>6.305474254742546</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2048,25 +2048,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-14.06862745098039</v>
+        <v>-14.26960784313725</v>
       </c>
       <c r="C4">
         <v>4.228323699421964</v>
       </c>
       <c r="D4">
-        <v>6.887096774193552</v>
+        <v>7.005645161290332</v>
       </c>
       <c r="E4">
-        <v>-3.475579655946149</v>
+        <v>-3.23395661929694</v>
       </c>
       <c r="F4">
-        <v>1.078428184281847</v>
+        <v>1.138489159891598</v>
       </c>
       <c r="G4">
-        <v>-2.664504773269694</v>
+        <v>-2.713559069212415</v>
       </c>
       <c r="H4">
-        <v>-1.41415025528811</v>
+        <v>-1.427104303428155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2074,25 +2074,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>5.278688524590166</v>
+        <v>5.35409836065574</v>
       </c>
       <c r="C5">
         <v>1.002604166666671</v>
       </c>
       <c r="D5">
-        <v>0.0803689064558526</v>
+        <v>0.08175230566533997</v>
       </c>
       <c r="E5">
-        <v>12.70183962264151</v>
+        <v>11.81880503144654</v>
       </c>
       <c r="F5">
-        <v>4.916035370199289</v>
+        <v>5.189824468787123</v>
       </c>
       <c r="G5">
-        <v>0.4206923325784473</v>
+        <v>0.4284373989000301</v>
       </c>
       <c r="H5">
-        <v>1.898843484965305</v>
+        <v>1.916237471087125</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2100,25 +2100,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.337606837606838</v>
+        <v>-4.399572649572651</v>
       </c>
       <c r="C6">
         <v>11.7258883248731</v>
       </c>
       <c r="D6">
-        <v>1.60526315789474</v>
+        <v>1.632894736842111</v>
       </c>
       <c r="E6">
-        <v>-18.41336782376501</v>
+        <v>-17.13326657765909</v>
       </c>
       <c r="F6">
-        <v>-4.7344864101659</v>
+        <v>-4.998164489939995</v>
       </c>
       <c r="G6">
-        <v>-4.866698625759025</v>
+        <v>-4.956295941195268</v>
       </c>
       <c r="H6">
-        <v>-1.582171099928111</v>
+        <v>-1.59666427030913</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2126,25 +2126,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.41463414634147</v>
+        <v>3.463414634146346</v>
       </c>
       <c r="C7">
         <v>-4.344357976653697</v>
       </c>
       <c r="D7">
-        <v>-1.235641025641023</v>
+        <v>-1.256910256410258</v>
       </c>
       <c r="E7">
-        <v>15.81286377940955</v>
+        <v>14.71355012737898</v>
       </c>
       <c r="F7">
-        <v>-2.950713048114089</v>
+        <v>-3.115047314407569</v>
       </c>
       <c r="G7">
-        <v>2.779418777943363</v>
+        <v>2.830588673621456</v>
       </c>
       <c r="H7">
-        <v>0.9622035195103287</v>
+        <v>0.9710175975516471</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2152,25 +2152,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>5.185185185185183</v>
+        <v>5.25925925925926</v>
       </c>
       <c r="C8">
         <v>-5.403508771929822</v>
       </c>
       <c r="D8">
-        <v>-17.49699031667103</v>
+        <v>-17.79816801884323</v>
       </c>
       <c r="E8">
-        <v>7.544655785986023</v>
+        <v>7.020149711621073</v>
       </c>
       <c r="F8">
-        <v>2.544241552839686</v>
+        <v>2.685938173975558</v>
       </c>
       <c r="G8">
-        <v>1.049476223294285</v>
+        <v>1.068797381116475</v>
       </c>
       <c r="H8">
-        <v>-1.198819188191884</v>
+        <v>-1.209800738007381</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2178,25 +2178,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-6.232258064516127</v>
+        <v>-6.321290322580641</v>
       </c>
       <c r="C9">
         <v>6.482142857142854</v>
       </c>
       <c r="D9">
-        <v>-13.43119266055046</v>
+        <v>-13.66238532110092</v>
       </c>
       <c r="E9">
-        <v>-1.587079587079586</v>
+        <v>-1.476745476745478</v>
       </c>
       <c r="F9">
-        <v>-10.94565129176248</v>
+        <v>-11.55524820776411</v>
       </c>
       <c r="G9">
-        <v>2.619986626546307</v>
+        <v>2.668221330658639</v>
       </c>
       <c r="H9">
-        <v>0.7497293116782693</v>
+        <v>0.7565970610982227</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2204,25 +2204,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.64835164835165</v>
+        <v>-1.671899529042385</v>
       </c>
       <c r="C10">
         <v>-3.866812227074234</v>
       </c>
       <c r="D10">
-        <v>30.85882352941177</v>
+        <v>31.39</v>
       </c>
       <c r="E10">
-        <v>-5.210191849245092</v>
+        <v>-4.847978204109431</v>
       </c>
       <c r="F10">
-        <v>-11.01818181818182</v>
+        <v>-11.63181818181818</v>
       </c>
       <c r="G10">
-        <v>4.399714285714282</v>
+        <v>4.480714285714285</v>
       </c>
       <c r="H10">
-        <v>2.285112781954886</v>
+        <v>2.306045112781955</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2230,25 +2230,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.632619439868208</v>
+        <v>3.684514003294893</v>
       </c>
       <c r="C11">
         <v>-1.495145631067963</v>
       </c>
       <c r="D11">
-        <v>3.717187500000009</v>
+        <v>3.781171874999998</v>
       </c>
       <c r="E11">
-        <v>-3.160020815476912</v>
+        <v>-2.940335496510343</v>
       </c>
       <c r="F11">
-        <v>5.019081632653055</v>
+        <v>5.298609693877545</v>
       </c>
       <c r="G11">
-        <v>3.550066042927895</v>
+        <v>3.61542377545404</v>
       </c>
       <c r="H11">
-        <v>1.6850622406639</v>
+        <v>1.700497925311204</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2256,25 +2256,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>0.261194029850742</v>
+        <v>0.2649253731343251</v>
       </c>
       <c r="C12">
         <v>-2.916666666666671</v>
       </c>
       <c r="D12">
-        <v>-8.579528718703983</v>
+        <v>-8.727209131075114</v>
       </c>
       <c r="E12">
-        <v>-16.00877786318217</v>
+        <v>-14.89584422239303</v>
       </c>
       <c r="F12">
-        <v>-6.114545041978673</v>
+        <v>-6.455082822781939</v>
       </c>
       <c r="G12">
-        <v>-1.586866118175017</v>
+        <v>-1.61608077786088</v>
       </c>
       <c r="H12">
-        <v>7.422482131254061</v>
+        <v>7.490474333983105</v>
       </c>
     </row>
   </sheetData>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>33.1</v>
+        <v>33.57</v>
       </c>
       <c r="D2">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>56.97</v>
       </c>
       <c r="D4">
-        <v>59.15</v>
+        <v>60.28</v>
       </c>
       <c r="E4">
-        <v>60.62</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2363,13 +2363,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>64.94</v>
+        <v>60.43</v>
       </c>
       <c r="D5">
-        <v>68.19</v>
+        <v>63.45</v>
       </c>
       <c r="E5">
-        <v>69.98</v>
+        <v>65.12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2380,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>36.48</v>
+        <v>38.51</v>
       </c>
       <c r="D6">
-        <v>37.82</v>
+        <v>40.03</v>
       </c>
       <c r="E6">
-        <v>39.57</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2397,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>32.42</v>
+        <v>33.02</v>
       </c>
       <c r="D7">
-        <v>33.34</v>
+        <v>33.96</v>
       </c>
       <c r="E7">
-        <v>33.94</v>
+        <v>34.57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2414,13 +2414,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>25.49</v>
+        <v>25.73</v>
       </c>
       <c r="D8">
-        <v>25.83</v>
+        <v>26.07</v>
       </c>
       <c r="E8">
-        <v>26.14</v>
+        <v>26.4</v>
       </c>
     </row>
   </sheetData>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.73</v>
+        <v>30.16</v>
       </c>
       <c r="D2">
-        <v>32.14</v>
+        <v>32.6</v>
       </c>
       <c r="E2">
-        <v>34.27</v>
+        <v>34.76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>53.01</v>
+        <v>53.92</v>
       </c>
       <c r="D4">
-        <v>55.83</v>
+        <v>56.79</v>
       </c>
       <c r="E4">
-        <v>58.27</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2509,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>62.26</v>
+        <v>57.93</v>
       </c>
       <c r="D5">
-        <v>65.8</v>
+        <v>61.23</v>
       </c>
       <c r="E5">
-        <v>67.98</v>
+        <v>63.23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2526,13 +2526,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>31.22</v>
+        <v>32.96</v>
       </c>
       <c r="D6">
-        <v>33.51</v>
+        <v>35.38</v>
       </c>
       <c r="E6">
-        <v>38.21</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2543,13 +2543,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>30.88</v>
+        <v>31.45</v>
       </c>
       <c r="D7">
-        <v>32.27</v>
+        <v>32.87</v>
       </c>
       <c r="E7">
-        <v>33.74</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2560,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>24.9</v>
+        <v>25.13</v>
       </c>
       <c r="D8">
-        <v>25.63</v>
+        <v>25.81</v>
       </c>
       <c r="E8">
-        <v>26.24</v>
+        <v>26.48</v>
       </c>
     </row>
   </sheetData>

--- a/3m_portfolio_returns_.xlsx
+++ b/3m_portfolio_returns_.xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,25 +478,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>49665.05</v>
+        <v>683549.48</v>
       </c>
       <c r="C2">
-        <v>499107.13</v>
+        <v>974972.9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>222682.96</v>
       </c>
       <c r="E2">
-        <v>475601.54</v>
+        <v>1014071.1</v>
       </c>
       <c r="F2">
-        <v>303136.96</v>
+        <v>560671.14</v>
       </c>
       <c r="G2">
-        <v>122242.67</v>
+        <v>189275.59</v>
       </c>
       <c r="H2">
-        <v>1449753.35</v>
+        <v>3645223.17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -504,25 +504,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>137562.5</v>
+        <v>1921357.38</v>
       </c>
       <c r="C3">
-        <v>82041.64</v>
+        <v>144241.61</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>398109.37</v>
       </c>
       <c r="E3">
-        <v>-91282.63</v>
+        <v>27348.9</v>
       </c>
       <c r="F3">
-        <v>248080.91</v>
+        <v>452652.32</v>
       </c>
       <c r="G3">
-        <v>78694.72</v>
+        <v>115104.69</v>
       </c>
       <c r="H3">
-        <v>455097.14</v>
+        <v>3058814.27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -530,25 +530,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-57506.52</v>
+        <v>-128331.88</v>
       </c>
       <c r="C4">
-        <v>268365.69</v>
+        <v>343131.72</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-42440.3</v>
       </c>
       <c r="E4">
-        <v>16437.29</v>
+        <v>80017.56</v>
       </c>
       <c r="F4">
-        <v>-121796.91</v>
+        <v>-159967.6</v>
       </c>
       <c r="G4">
-        <v>-91376.05</v>
+        <v>-4553.31</v>
       </c>
       <c r="H4">
-        <v>14123.50000000001</v>
+        <v>87856.18999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -556,25 +556,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>21577.02</v>
+        <v>288158.57</v>
       </c>
       <c r="C5">
-        <v>-106137.74</v>
+        <v>-62772.72</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>371181.75</v>
       </c>
       <c r="E5">
-        <v>333888.92</v>
+        <v>235949.37</v>
       </c>
       <c r="F5">
-        <v>-3868.38</v>
+        <v>-41667.03</v>
       </c>
       <c r="G5">
-        <v>-20104.16</v>
+        <v>-53267.97</v>
       </c>
       <c r="H5">
-        <v>225355.66</v>
+        <v>737581.97</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -582,25 +582,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-17730.28</v>
+        <v>-232161.91</v>
       </c>
       <c r="C6">
-        <v>-22599.6</v>
+        <v>28227.32</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-966621.15</v>
       </c>
       <c r="E6">
-        <v>-302833.78</v>
+        <v>-156176.06</v>
       </c>
       <c r="F6">
-        <v>-204865.77</v>
+        <v>-141615.07</v>
       </c>
       <c r="G6">
-        <v>-94392.88</v>
+        <v>-894.6</v>
       </c>
       <c r="H6">
-        <v>-642422.3100000001</v>
+        <v>-1469241.47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -608,25 +608,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>13957.56</v>
+        <v>181222.98</v>
       </c>
       <c r="C7">
-        <v>-177222.25</v>
+        <v>-136980.52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>450723.99</v>
       </c>
       <c r="E7">
-        <v>-257105.44</v>
+        <v>-83696.78</v>
       </c>
       <c r="F7">
-        <v>86302.46000000001</v>
+        <v>135246.31</v>
       </c>
       <c r="G7">
-        <v>-41231.02</v>
+        <v>-56299.26</v>
       </c>
       <c r="H7">
-        <v>-375298.69</v>
+        <v>490216.72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -634,25 +634,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>21194.81</v>
+        <v>282786.27</v>
       </c>
       <c r="C8">
-        <v>-164160.97</v>
+        <v>-599607.95</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>239323.58</v>
       </c>
       <c r="E8">
-        <v>144645.77</v>
+        <v>139577.31</v>
       </c>
       <c r="F8">
-        <v>20169.16</v>
+        <v>5494.12</v>
       </c>
       <c r="G8">
-        <v>-87338.42999999999</v>
+        <v>-9242.219999999999</v>
       </c>
       <c r="H8">
-        <v>-65489.66</v>
+        <v>58331.11000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -660,25 +660,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-25474.8</v>
+        <v>-300369.67</v>
       </c>
       <c r="C9">
-        <v>-206644.7</v>
+        <v>-521922.68</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5844.61</v>
       </c>
       <c r="E9">
-        <v>-288245.21</v>
+        <v>-801371.6</v>
       </c>
       <c r="F9">
-        <v>80207.59</v>
+        <v>123288.3</v>
       </c>
       <c r="G9">
-        <v>-45986.62</v>
+        <v>-51672.56</v>
       </c>
       <c r="H9">
-        <v>-486143.74</v>
+        <v>-1546203.6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -686,25 +686,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-6737.76</v>
+        <v>-101451.95</v>
       </c>
       <c r="C10">
-        <v>484787.61</v>
+        <v>1000674.55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-86790.63</v>
       </c>
       <c r="E10">
-        <v>-287794.41</v>
+        <v>-804318.7</v>
       </c>
       <c r="F10">
-        <v>148244.11</v>
+        <v>256774.56</v>
       </c>
       <c r="G10">
-        <v>-11350.08</v>
+        <v>-38314.81</v>
       </c>
       <c r="H10">
-        <v>327149.47</v>
+        <v>226573.0200000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -712,25 +712,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>14848.59</v>
+        <v>193704.13</v>
       </c>
       <c r="C11">
-        <v>94100.10000000001</v>
+        <v>157562.99</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-34372.14</v>
       </c>
       <c r="E11">
-        <v>341003.19</v>
+        <v>240136.4</v>
       </c>
       <c r="F11">
-        <v>115763.24</v>
+        <v>193047.75</v>
       </c>
       <c r="G11">
-        <v>-24941.9</v>
+        <v>-61543.81</v>
       </c>
       <c r="H11">
-        <v>540773.22</v>
+        <v>688535.3200000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -738,25 +738,51 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>1067.65</v>
+        <v>2543.85</v>
       </c>
       <c r="C12">
-        <v>-233156.02</v>
+        <v>-420618.78</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-724316.72</v>
       </c>
       <c r="E12">
-        <v>-311521.32</v>
+        <v>-212251.37</v>
       </c>
       <c r="F12">
-        <v>-80613.5</v>
+        <v>-168948.37</v>
       </c>
       <c r="G12">
-        <v>105383.88</v>
+        <v>160561.7</v>
       </c>
       <c r="H12">
-        <v>-518839.3099999999</v>
+        <v>-1363029.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B13">
+        <v>16906.27</v>
+      </c>
+      <c r="C13">
+        <v>-411356.47</v>
+      </c>
+      <c r="D13">
+        <v>236207.51</v>
+      </c>
+      <c r="E13">
+        <v>425080.12</v>
+      </c>
+      <c r="F13">
+        <v>-163136.42</v>
+      </c>
+      <c r="G13">
+        <v>93534.48</v>
+      </c>
+      <c r="H13">
+        <v>197235.49</v>
       </c>
     </row>
   </sheetData>
@@ -800,25 +826,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-57506.52</v>
+        <v>-300369.67</v>
       </c>
       <c r="C2">
-        <v>-233156.02</v>
+        <v>-599607.95</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-966621.15</v>
       </c>
       <c r="E2">
-        <v>-311521.32</v>
+        <v>-804318.7</v>
       </c>
       <c r="F2">
-        <v>-204865.77</v>
+        <v>-168948.37</v>
       </c>
       <c r="G2">
-        <v>-94392.88</v>
+        <v>-61543.81</v>
       </c>
       <c r="H2">
-        <v>-642422.3100000001</v>
+        <v>-1546203.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,25 +852,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-57506.52</v>
+        <v>-232161.91</v>
       </c>
       <c r="C3">
-        <v>-233156.02</v>
+        <v>-521922.68</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-724316.72</v>
       </c>
       <c r="E3">
-        <v>-311521.32</v>
+        <v>-801371.6</v>
       </c>
       <c r="F3">
-        <v>-204865.77</v>
+        <v>-163136.42</v>
       </c>
       <c r="G3">
-        <v>-94392.88</v>
+        <v>-56299.26</v>
       </c>
       <c r="H3">
-        <v>-642422.3100000001</v>
+        <v>-1469241.47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-6737.76</v>
+        <v>2543.85</v>
       </c>
       <c r="C4">
-        <v>-164160.97</v>
+        <v>-136980.52</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-34372.14</v>
       </c>
       <c r="E4">
-        <v>-287794.41</v>
+        <v>-83696.78</v>
       </c>
       <c r="F4">
-        <v>-3868.38</v>
+        <v>-41667.03</v>
       </c>
       <c r="G4">
-        <v>-45986.62</v>
+        <v>-38314.81</v>
       </c>
       <c r="H4">
-        <v>-375298.69</v>
+        <v>87856.18999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -878,25 +904,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>21194.81</v>
+        <v>193704.13</v>
       </c>
       <c r="C5">
-        <v>94100.10000000001</v>
+        <v>144241.61</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>236207.51</v>
       </c>
       <c r="E5">
-        <v>144645.77</v>
+        <v>139577.31</v>
       </c>
       <c r="F5">
-        <v>115763.24</v>
+        <v>135246.31</v>
       </c>
       <c r="G5">
-        <v>-11350.08</v>
+        <v>-894.6</v>
       </c>
       <c r="H5">
-        <v>327149.47</v>
+        <v>490216.72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -904,25 +930,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>137562.5</v>
+        <v>683549.48</v>
       </c>
       <c r="C6">
-        <v>499107.13</v>
+        <v>974972.9</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>398109.37</v>
       </c>
       <c r="E6">
-        <v>475601.54</v>
+        <v>425080.12</v>
       </c>
       <c r="F6">
-        <v>303136.96</v>
+        <v>452652.32</v>
       </c>
       <c r="G6">
-        <v>122242.67</v>
+        <v>160561.7</v>
       </c>
       <c r="H6">
-        <v>1449753.35</v>
+        <v>3058814.27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -930,25 +956,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>137562.5</v>
+        <v>1921357.38</v>
       </c>
       <c r="C7">
-        <v>499107.13</v>
+        <v>1000674.55</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>450723.99</v>
       </c>
       <c r="E7">
-        <v>475601.54</v>
+        <v>1014071.1</v>
       </c>
       <c r="F7">
-        <v>303136.96</v>
+        <v>560671.14</v>
       </c>
       <c r="G7">
-        <v>122242.67</v>
+        <v>189275.59</v>
       </c>
       <c r="H7">
-        <v>1449753.35</v>
+        <v>3645223.17</v>
       </c>
     </row>
   </sheetData>
@@ -957,656 +983,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B2">
-        <v>636538.360103627</v>
-      </c>
-      <c r="C2">
-        <v>887061.7000424123</v>
-      </c>
-      <c r="D2">
-        <v>176819.0207297963</v>
-      </c>
-      <c r="E2">
-        <v>1092262.067940408</v>
-      </c>
-      <c r="F2">
-        <v>452851.3310455068</v>
-      </c>
-      <c r="G2">
-        <v>571369.5466971615</v>
-      </c>
-      <c r="H2">
-        <v>3816902.026558912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B3">
-        <v>1763087.019230769</v>
-      </c>
-      <c r="C3">
-        <v>105183.1578904419</v>
-      </c>
-      <c r="D3">
-        <v>548845.3897106936</v>
-      </c>
-      <c r="E3">
-        <v>-9884.532225175361</v>
-      </c>
-      <c r="F3">
-        <v>375682.8328277319</v>
-      </c>
-      <c r="G3">
-        <v>437280.4823672194</v>
-      </c>
-      <c r="H3">
-        <v>3220194.349801681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B4">
-        <v>-737039.5147058823</v>
-      </c>
-      <c r="C4">
-        <v>207019.1621078229</v>
-      </c>
-      <c r="D4">
-        <v>-89144.92586329112</v>
-      </c>
-      <c r="E4">
-        <v>48945.17660849456</v>
-      </c>
-      <c r="F4">
-        <v>-142771.0381243365</v>
-      </c>
-      <c r="G4">
-        <v>-98968.74255287532</v>
-      </c>
-      <c r="H4">
-        <v>-811959.8825300678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>44742</v>
-      </c>
-      <c r="B5">
-        <v>276544.5344262297</v>
-      </c>
-      <c r="C5">
-        <v>2415.808027608425</v>
-      </c>
-      <c r="D5">
-        <v>325788.6924129623</v>
-      </c>
-      <c r="E5">
-        <v>223117.5176196306</v>
-      </c>
-      <c r="F5">
-        <v>22541.78024213835</v>
-      </c>
-      <c r="G5">
-        <v>132889.8052445275</v>
-      </c>
-      <c r="H5">
-        <v>983298.1379730969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B6">
-        <v>-227242.326923077</v>
-      </c>
-      <c r="C6">
-        <v>48252.5866567107</v>
-      </c>
-      <c r="D6">
-        <v>-472283.3230810211</v>
-      </c>
-      <c r="E6">
-        <v>-214877.797959633</v>
-      </c>
-      <c r="F6">
-        <v>-260770.2647067353</v>
-      </c>
-      <c r="G6">
-        <v>-110727.6144651848</v>
-      </c>
-      <c r="H6">
-        <v>-1237648.74047894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B7">
-        <v>178888.8292682929</v>
-      </c>
-      <c r="C7">
-        <v>-37142.11926755004</v>
-      </c>
-      <c r="D7">
-        <v>405583.1570109825</v>
-      </c>
-      <c r="E7">
-        <v>-133920.0638168679</v>
-      </c>
-      <c r="F7">
-        <v>148928.4268844819</v>
-      </c>
-      <c r="G7">
-        <v>67339.43019830466</v>
-      </c>
-      <c r="H7">
-        <v>629677.6602776442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B8">
-        <v>271646</v>
-      </c>
-      <c r="C8">
-        <v>-525941.8291229208</v>
-      </c>
-      <c r="D8">
-        <v>193512.4057810386</v>
-      </c>
-      <c r="E8">
-        <v>115472.0860910511</v>
-      </c>
-      <c r="F8">
-        <v>56233.64288541543</v>
-      </c>
-      <c r="G8">
-        <v>-83898.8835591853</v>
-      </c>
-      <c r="H8">
-        <v>27023.42207539904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B9">
-        <v>-326500.9664516127</v>
-      </c>
-      <c r="C9">
-        <v>-403728.0645038533</v>
-      </c>
-      <c r="D9">
-        <v>-40706.905361039</v>
-      </c>
-      <c r="E9">
-        <v>-496775.625283824</v>
-      </c>
-      <c r="F9">
-        <v>140385.6410003258</v>
-      </c>
-      <c r="G9">
-        <v>52469.50736271936</v>
-      </c>
-      <c r="H9">
-        <v>-1074856.413237284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B10">
-        <v>-86355.28257456822</v>
-      </c>
-      <c r="C10">
-        <v>927585.0187890001</v>
-      </c>
-      <c r="D10">
-        <v>-133635.8858413322</v>
-      </c>
-      <c r="E10">
-        <v>-500067.4712099999</v>
-      </c>
-      <c r="F10">
-        <v>235748.0393067857</v>
-      </c>
-      <c r="G10">
-        <v>159922.7081958858</v>
-      </c>
-      <c r="H10">
-        <v>603197.1266657714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>45289</v>
-      </c>
-      <c r="B11">
-        <v>190308.8327841845</v>
-      </c>
-      <c r="C11">
-        <v>111734.8959769453</v>
-      </c>
-      <c r="D11">
-        <v>-81051.17684188408</v>
-      </c>
-      <c r="E11">
-        <v>227794.3404142829</v>
-      </c>
-      <c r="F11">
-        <v>190221.695019448</v>
-      </c>
-      <c r="G11">
-        <v>117928.4099820499</v>
-      </c>
-      <c r="H11">
-        <v>756936.9973350265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>45379</v>
-      </c>
-      <c r="B12">
-        <v>13683.66044776102</v>
-      </c>
-      <c r="C12">
-        <v>-257891.9543110495</v>
-      </c>
-      <c r="D12">
-        <v>-410608.1451287502</v>
-      </c>
-      <c r="E12">
-        <v>-277512.6719815272</v>
-      </c>
-      <c r="F12">
-        <v>-85028.37950564682</v>
-      </c>
-      <c r="G12">
-        <v>519459.456592</v>
-      </c>
-      <c r="H12">
-        <v>-497898.0338872127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B2">
-        <v>-586873.3101036269</v>
-      </c>
-      <c r="C2">
-        <v>-387954.5700424123</v>
-      </c>
-      <c r="D2">
-        <v>-176819.0207297963</v>
-      </c>
-      <c r="E2">
-        <v>-616660.5279404083</v>
-      </c>
-      <c r="F2">
-        <v>-149714.3710455067</v>
-      </c>
-      <c r="G2">
-        <v>-449126.8766971615</v>
-      </c>
-      <c r="H2">
-        <v>-2367148.676558912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B3">
-        <v>-1625524.519230769</v>
-      </c>
-      <c r="C3">
-        <v>-23141.51789044187</v>
-      </c>
-      <c r="D3">
-        <v>-548845.3897106936</v>
-      </c>
-      <c r="E3">
-        <v>-81398.09777482465</v>
-      </c>
-      <c r="F3">
-        <v>-127601.9228277319</v>
-      </c>
-      <c r="G3">
-        <v>-358585.7623672194</v>
-      </c>
-      <c r="H3">
-        <v>-2765097.20980168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>44651</v>
-      </c>
-      <c r="B4">
-        <v>679532.9947058823</v>
-      </c>
-      <c r="C4">
-        <v>61346.52789217714</v>
-      </c>
-      <c r="D4">
-        <v>89144.92586329112</v>
-      </c>
-      <c r="E4">
-        <v>-32507.88660849455</v>
-      </c>
-      <c r="F4">
-        <v>20974.12812433648</v>
-      </c>
-      <c r="G4">
-        <v>7592.69255287532</v>
-      </c>
-      <c r="H4">
-        <v>826083.3825300678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>44742</v>
-      </c>
-      <c r="B5">
-        <v>-254967.5144262297</v>
-      </c>
-      <c r="C5">
-        <v>-108553.5480276084</v>
-      </c>
-      <c r="D5">
-        <v>-325788.6924129623</v>
-      </c>
-      <c r="E5">
-        <v>110771.4023803694</v>
-      </c>
-      <c r="F5">
-        <v>-26410.16024213835</v>
-      </c>
-      <c r="G5">
-        <v>-152993.9652445275</v>
-      </c>
-      <c r="H5">
-        <v>-757942.477973097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>44834</v>
-      </c>
-      <c r="B6">
-        <v>209512.046923077</v>
-      </c>
-      <c r="C6">
-        <v>-70852.18665671069</v>
-      </c>
-      <c r="D6">
-        <v>472283.3230810211</v>
-      </c>
-      <c r="E6">
-        <v>-87955.98204036706</v>
-      </c>
-      <c r="F6">
-        <v>55904.49470673531</v>
-      </c>
-      <c r="G6">
-        <v>16334.73446518477</v>
-      </c>
-      <c r="H6">
-        <v>595226.4304789403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B7">
-        <v>-164931.2692682929</v>
-      </c>
-      <c r="C7">
-        <v>-140080.13073245</v>
-      </c>
-      <c r="D7">
-        <v>-405583.1570109825</v>
-      </c>
-      <c r="E7">
-        <v>-123185.3761831321</v>
-      </c>
-      <c r="F7">
-        <v>-62625.96688448188</v>
-      </c>
-      <c r="G7">
-        <v>-108570.4501983047</v>
-      </c>
-      <c r="H7">
-        <v>-1004976.350277644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B8">
-        <v>-250451.19</v>
-      </c>
-      <c r="C8">
-        <v>361780.8591229208</v>
-      </c>
-      <c r="D8">
-        <v>-193512.4057810386</v>
-      </c>
-      <c r="E8">
-        <v>29173.68390894892</v>
-      </c>
-      <c r="F8">
-        <v>-36064.48288541543</v>
-      </c>
-      <c r="G8">
-        <v>-3439.546440814695</v>
-      </c>
-      <c r="H8">
-        <v>-92513.08207539904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B9">
-        <v>301026.1664516127</v>
-      </c>
-      <c r="C9">
-        <v>197083.3645038533</v>
-      </c>
-      <c r="D9">
-        <v>40706.905361039</v>
-      </c>
-      <c r="E9">
-        <v>208530.415283824</v>
-      </c>
-      <c r="F9">
-        <v>-60178.0510003258</v>
-      </c>
-      <c r="G9">
-        <v>-98456.12736271936</v>
-      </c>
-      <c r="H9">
-        <v>588712.6732372837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B10">
-        <v>79617.52257456823</v>
-      </c>
-      <c r="C10">
-        <v>-442797.4087890001</v>
-      </c>
-      <c r="D10">
-        <v>133635.8858413322</v>
-      </c>
-      <c r="E10">
-        <v>212273.0612099999</v>
-      </c>
-      <c r="F10">
-        <v>-87503.92930678572</v>
-      </c>
-      <c r="G10">
-        <v>-171272.7881958857</v>
-      </c>
-      <c r="H10">
-        <v>-276047.6566657714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>45289</v>
-      </c>
-      <c r="B11">
-        <v>-175460.2427841845</v>
-      </c>
-      <c r="C11">
-        <v>-17634.79597694526</v>
-      </c>
-      <c r="D11">
-        <v>81051.17684188408</v>
-      </c>
-      <c r="E11">
-        <v>113208.8495857171</v>
-      </c>
-      <c r="F11">
-        <v>-74458.455019448</v>
-      </c>
-      <c r="G11">
-        <v>-142870.3099820499</v>
-      </c>
-      <c r="H11">
-        <v>-216163.7773350265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>45379</v>
-      </c>
-      <c r="B12">
-        <v>-12616.01044776102</v>
-      </c>
-      <c r="C12">
-        <v>24735.93431104947</v>
-      </c>
-      <c r="D12">
-        <v>410608.1451287502</v>
-      </c>
-      <c r="E12">
-        <v>-34008.64801847283</v>
-      </c>
-      <c r="F12">
-        <v>4414.879505646823</v>
-      </c>
-      <c r="G12">
-        <v>-414075.576592</v>
-      </c>
-      <c r="H12">
-        <v>-20941.27611278719</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -1622,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1645,25 +1021,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>47.82383419689119</v>
+        <v>630014.9727979272</v>
       </c>
       <c r="C2">
-        <v>47.2421052631579</v>
+        <v>877980.7873740374</v>
       </c>
       <c r="D2">
-        <v>92.06866804692892</v>
+        <v>175005.5560129847</v>
       </c>
       <c r="E2">
-        <v>72.93455514118273</v>
+        <v>1081082.87896311</v>
       </c>
       <c r="F2">
-        <v>68.05655913978494</v>
+        <v>448222.1484741112</v>
       </c>
       <c r="G2">
-        <v>43.45705961452264</v>
+        <v>565518.6352720382</v>
       </c>
       <c r="H2">
-        <v>34.6790047393365</v>
+        <v>3777824.978894209</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1671,25 +1047,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>69.63461538461539</v>
+        <v>1745018.509615385</v>
       </c>
       <c r="C3">
-        <v>40.81188725490196</v>
+        <v>104106.3905461398</v>
       </c>
       <c r="D3">
-        <v>65.60945736434108</v>
+        <v>543216.403953861</v>
       </c>
       <c r="E3">
-        <v>86.43074829931972</v>
+        <v>-9783.36506306222</v>
       </c>
       <c r="F3">
-        <v>42.42008086253369</v>
+        <v>371842.4898655429</v>
       </c>
       <c r="G3">
-        <v>41.99036664270309</v>
+        <v>432802.6634406503</v>
       </c>
       <c r="H3">
-        <v>32.74547425474255</v>
+        <v>3187203.092358516</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1697,25 +1073,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>21.23039215686275</v>
+        <v>-729486.1691176471</v>
       </c>
       <c r="C4">
-        <v>42.72832369942196</v>
+        <v>204899.8924654842</v>
       </c>
       <c r="D4">
-        <v>69.05564516129033</v>
+        <v>-88230.65104676601</v>
       </c>
       <c r="E4">
-        <v>63.28604338070306</v>
+        <v>48444.22780243994</v>
       </c>
       <c r="F4">
-        <v>43.7884891598916</v>
+        <v>-141311.5896120413</v>
       </c>
       <c r="G4">
-        <v>32.13644093078759</v>
+        <v>-97955.28751334803</v>
       </c>
       <c r="H4">
-        <v>25.01289569657185</v>
+        <v>-803639.5770218782</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1723,25 +1099,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>40.85409836065574</v>
+        <v>273710.4442622953</v>
       </c>
       <c r="C5">
-        <v>39.50260416666667</v>
+        <v>2391.077231857498</v>
       </c>
       <c r="D5">
-        <v>62.13175230566534</v>
+        <v>322447.3872955114</v>
       </c>
       <c r="E5">
-        <v>78.33880503144654</v>
+        <v>220833.9329682668</v>
       </c>
       <c r="F5">
-        <v>47.83982446878712</v>
+        <v>22311.35138155774</v>
       </c>
       <c r="G5">
-        <v>35.27843739890003</v>
+        <v>131528.9933421744</v>
       </c>
       <c r="H5">
-        <v>28.35623747108713</v>
+        <v>973223.1864816633</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1749,25 +1125,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>31.10042735042735</v>
+        <v>-224913.4967948716</v>
       </c>
       <c r="C6">
-        <v>50.2258883248731</v>
+        <v>47758.62155210549</v>
       </c>
       <c r="D6">
-        <v>63.68289473684211</v>
+        <v>-467439.5617073236</v>
       </c>
       <c r="E6">
-        <v>49.3867334223409</v>
+        <v>-212678.5459843754</v>
       </c>
       <c r="F6">
-        <v>37.65183551006</v>
+        <v>-258104.5925937007</v>
       </c>
       <c r="G6">
-        <v>29.89370405880473</v>
+        <v>-109593.7467813085</v>
       </c>
       <c r="H6">
-        <v>24.84333572969087</v>
+        <v>-1224971.322309474</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1775,25 +1151,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>38.96341463414635</v>
+        <v>177055.536585366</v>
       </c>
       <c r="C7">
-        <v>34.1556420233463</v>
+        <v>-36761.89279472307</v>
       </c>
       <c r="D7">
-        <v>60.79308974358974</v>
+        <v>401423.4758752267</v>
       </c>
       <c r="E7">
-        <v>81.23355012737898</v>
+        <v>-132549.4058537258</v>
       </c>
       <c r="F7">
-        <v>39.53495268559243</v>
+        <v>147406.0356914886</v>
       </c>
       <c r="G7">
-        <v>37.68058867362146</v>
+        <v>66649.86414812569</v>
       </c>
       <c r="H7">
-        <v>27.41101759755165</v>
+        <v>623223.6136517581</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1801,25 +1177,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>40.75925925925926</v>
+        <v>268862.1111111109</v>
       </c>
       <c r="C8">
-        <v>33.09649122807018</v>
+        <v>-520557.7258314787</v>
       </c>
       <c r="D8">
-        <v>44.25183198115676</v>
+        <v>191527.7328725422</v>
       </c>
       <c r="E8">
-        <v>73.54014971162107</v>
+        <v>114290.2412665313</v>
       </c>
       <c r="F8">
-        <v>45.33593817397556</v>
+        <v>55658.80566682943</v>
       </c>
       <c r="G8">
-        <v>35.91879738111648</v>
+        <v>-83039.74617741704</v>
       </c>
       <c r="H8">
-        <v>25.23019926199262</v>
+        <v>26741.41890811815</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1827,25 +1203,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>29.17870967741936</v>
+        <v>-323154.9116129032</v>
       </c>
       <c r="C9">
-        <v>44.98214285714285</v>
+        <v>-399595.0720689908</v>
       </c>
       <c r="D9">
-        <v>48.38761467889908</v>
+        <v>-40289.41330448216</v>
       </c>
       <c r="E9">
-        <v>65.04325452325452</v>
+        <v>-491691.1782839978</v>
       </c>
       <c r="F9">
-        <v>31.09475179223589</v>
+        <v>138950.5767352116</v>
       </c>
       <c r="G9">
-        <v>37.51822133065864</v>
+        <v>51932.21159350343</v>
       </c>
       <c r="H9">
-        <v>27.19659706109822</v>
+        <v>-1063847.786941659</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1853,25 +1229,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>33.82810047095762</v>
+        <v>-85470.29434850848</v>
       </c>
       <c r="C10">
-        <v>34.63318777292577</v>
+        <v>918089.2660722351</v>
       </c>
       <c r="D10">
-        <v>93.44</v>
+        <v>-132265.3095149116</v>
       </c>
       <c r="E10">
-        <v>61.67202179589056</v>
+        <v>-494949.3325085454</v>
       </c>
       <c r="F10">
-        <v>31.01818181818182</v>
+        <v>233338.1519111142</v>
       </c>
       <c r="G10">
-        <v>39.33071428571429</v>
+        <v>158285.0752384962</v>
       </c>
       <c r="H10">
-        <v>28.74604511278196</v>
+        <v>597027.5568498799</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1879,25 +1255,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>39.18451400329489</v>
+        <v>188358.5053542011</v>
       </c>
       <c r="C11">
-        <v>37.00485436893204</v>
+        <v>110591.058031594</v>
       </c>
       <c r="D11">
-        <v>65.831171875</v>
+        <v>-80219.91191997596</v>
       </c>
       <c r="E11">
-        <v>63.57966450348965</v>
+        <v>225462.8889666901</v>
       </c>
       <c r="F11">
-        <v>47.94860969387754</v>
+        <v>188277.1916142084</v>
       </c>
       <c r="G11">
-        <v>38.46542377545404</v>
+        <v>116720.8050522821</v>
       </c>
       <c r="H11">
-        <v>28.14049792531121</v>
+        <v>749190.5370989997</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1905,25 +1281,25 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>35.76492537313433</v>
+        <v>13543.42723880566</v>
       </c>
       <c r="C12">
-        <v>35.58333333333333</v>
+        <v>-255251.896336657</v>
       </c>
       <c r="D12">
-        <v>53.32279086892488</v>
+        <v>-406396.9274636305</v>
       </c>
       <c r="E12">
-        <v>51.62415577760697</v>
+        <v>-274672.3585670674</v>
       </c>
       <c r="F12">
-        <v>36.19491717721806</v>
+        <v>-84159.19382483461</v>
       </c>
       <c r="G12">
-        <v>33.23391922213912</v>
+        <v>514140.1124179338</v>
       </c>
       <c r="H12">
-        <v>33.93047433398311</v>
+        <v>-492796.83653545</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1931,25 +1307,25 @@
         <v>45471</v>
       </c>
       <c r="B13">
-        <v>36.02592592592593</v>
+        <v>26886.21111111119</v>
       </c>
       <c r="C13">
-        <v>38.2896174863388</v>
+        <v>-244154.1869578921</v>
       </c>
       <c r="D13">
-        <v>53.70222793487574</v>
+        <v>188433.8453989687</v>
       </c>
       <c r="E13">
-        <v>73.42674810168371</v>
+        <v>429926.5770613443</v>
       </c>
       <c r="F13">
-        <v>52.7537165775401</v>
+        <v>-63579.13914092241</v>
       </c>
       <c r="G13">
-        <v>33.62911111111111</v>
+        <v>394206.5271882531</v>
       </c>
       <c r="H13">
-        <v>32.18316962025316</v>
+        <v>731719.8346608628</v>
       </c>
     </row>
   </sheetData>
@@ -1957,9 +1333,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1973,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1996,25 +1372,25 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>12.32383419689119</v>
+        <v>53534.50720207277</v>
       </c>
       <c r="C2">
-        <v>8.742105263157896</v>
+        <v>96992.11262596259</v>
       </c>
       <c r="D2">
-        <v>30.01866804692892</v>
+        <v>47677.40398701525</v>
       </c>
       <c r="E2">
-        <v>6.414555141182731</v>
+        <v>-67011.77896310983</v>
       </c>
       <c r="F2">
-        <v>25.40655913978494</v>
+        <v>112448.9915258889</v>
       </c>
       <c r="G2">
-        <v>8.60705961452264</v>
+        <v>-376243.0452720382</v>
       </c>
       <c r="H2">
-        <v>8.239004739336497</v>
+        <v>-132601.8088942086</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2022,25 +1398,25 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>34.13461538461539</v>
+        <v>176338.8703846154</v>
       </c>
       <c r="C3">
-        <v>2.311887254901961</v>
+        <v>40135.21945386023</v>
       </c>
       <c r="D3">
-        <v>3.559457364341085</v>
+        <v>-145107.033953861</v>
       </c>
       <c r="E3">
-        <v>19.91074829931972</v>
+        <v>37132.26506306222</v>
       </c>
       <c r="F3">
-        <v>-0.229919137466311</v>
+        <v>80809.83013445709</v>
       </c>
       <c r="G3">
-        <v>7.140366642703093</v>
+        <v>-317697.9734406503</v>
       </c>
       <c r="H3">
-        <v>6.305474254742546</v>
+        <v>-128388.8223585165</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2048,25 +1424,25 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-14.26960784313725</v>
+        <v>601154.2891176471</v>
       </c>
       <c r="C4">
-        <v>4.228323699421964</v>
+        <v>138231.8275345158</v>
       </c>
       <c r="D4">
-        <v>7.005645161290332</v>
+        <v>45790.35104676601</v>
       </c>
       <c r="E4">
-        <v>-3.23395661929694</v>
+        <v>31573.33219756006</v>
       </c>
       <c r="F4">
-        <v>1.138489159891598</v>
+        <v>-18656.01038795876</v>
       </c>
       <c r="G4">
-        <v>-2.713559069212415</v>
+        <v>93401.97751334803</v>
       </c>
       <c r="H4">
-        <v>-1.427104303428155</v>
+        <v>891495.7670218782</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2074,25 +1450,25 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>5.35409836065574</v>
+        <v>14448.12573770469</v>
       </c>
       <c r="C5">
-        <v>1.002604166666671</v>
+        <v>-65163.7972318575</v>
       </c>
       <c r="D5">
-        <v>0.08175230566533997</v>
+        <v>48734.36270448862</v>
       </c>
       <c r="E5">
-        <v>11.81880503144654</v>
+        <v>15115.43703173319</v>
       </c>
       <c r="F5">
-        <v>5.189824468787123</v>
+        <v>-63978.38138155775</v>
       </c>
       <c r="G5">
-        <v>0.4284373989000301</v>
+        <v>-184796.9633421744</v>
       </c>
       <c r="H5">
-        <v>1.916237471087125</v>
+        <v>-235641.2164816633</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2100,25 +1476,25 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.399572649572651</v>
+        <v>-7248.413205128367</v>
       </c>
       <c r="C6">
-        <v>11.7258883248731</v>
+        <v>-19531.30155210549</v>
       </c>
       <c r="D6">
-        <v>1.632894736842111</v>
+        <v>-499181.5882926764</v>
       </c>
       <c r="E6">
-        <v>-17.13326657765909</v>
+        <v>56502.48598437538</v>
       </c>
       <c r="F6">
-        <v>-4.998164489939995</v>
+        <v>116489.5225937007</v>
       </c>
       <c r="G6">
-        <v>-4.956295941195268</v>
+        <v>108699.1467813085</v>
       </c>
       <c r="H6">
-        <v>-1.59666427030913</v>
+        <v>-244270.147690526</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2126,25 +1502,25 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.463414634146346</v>
+        <v>4167.443414634035</v>
       </c>
       <c r="C7">
-        <v>-4.344357976653697</v>
+        <v>-100218.6272052769</v>
       </c>
       <c r="D7">
-        <v>-1.256910256410258</v>
+        <v>49300.51412477333</v>
       </c>
       <c r="E7">
-        <v>14.71355012737898</v>
+        <v>48852.62585372577</v>
       </c>
       <c r="F7">
-        <v>-3.115047314407569</v>
+        <v>-12159.72569148857</v>
       </c>
       <c r="G7">
-        <v>2.830588673621456</v>
+        <v>-122949.1241481257</v>
       </c>
       <c r="H7">
-        <v>0.9710175975516471</v>
+        <v>-133006.8936517581</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2152,25 +1528,25 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>5.25925925925926</v>
+        <v>13924.15888888907</v>
       </c>
       <c r="C8">
-        <v>-5.403508771929822</v>
+        <v>-79050.22416852129</v>
       </c>
       <c r="D8">
-        <v>-17.79816801884323</v>
+        <v>47795.84712745779</v>
       </c>
       <c r="E8">
-        <v>7.020149711621073</v>
+        <v>25287.06873346872</v>
       </c>
       <c r="F8">
-        <v>2.685938173975558</v>
+        <v>-50164.68566682943</v>
       </c>
       <c r="G8">
-        <v>1.068797381116475</v>
+        <v>73797.52617741704</v>
       </c>
       <c r="H8">
-        <v>-1.209800738007381</v>
+        <v>31589.69109188189</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2178,25 +1554,25 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-6.321290322580641</v>
+        <v>22785.24161290319</v>
       </c>
       <c r="C9">
-        <v>6.482142857142854</v>
+        <v>-122327.6079310091</v>
       </c>
       <c r="D9">
-        <v>-13.66238532110092</v>
+        <v>46134.02330448217</v>
       </c>
       <c r="E9">
-        <v>-1.476745476745478</v>
+        <v>-309680.4217160022</v>
       </c>
       <c r="F9">
-        <v>-11.55524820776411</v>
+        <v>-15662.27673521162</v>
       </c>
       <c r="G9">
-        <v>2.668221330658639</v>
+        <v>-103604.7715935034</v>
       </c>
       <c r="H9">
-        <v>0.7565970610982227</v>
+        <v>-482355.8130583409</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2204,25 +1580,25 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.671899529042385</v>
+        <v>-15981.65565149151</v>
       </c>
       <c r="C10">
-        <v>-3.866812227074234</v>
+        <v>82585.28392776498</v>
       </c>
       <c r="D10">
-        <v>31.39</v>
+        <v>45474.67951491158</v>
       </c>
       <c r="E10">
-        <v>-4.847978204109431</v>
+        <v>-309369.3674914546</v>
       </c>
       <c r="F10">
-        <v>-11.63181818181818</v>
+        <v>23436.40808888583</v>
       </c>
       <c r="G10">
-        <v>4.480714285714285</v>
+        <v>-196599.8852384962</v>
       </c>
       <c r="H10">
-        <v>2.306045112781955</v>
+        <v>-370454.5368498798</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2230,25 +1606,25 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.684514003294893</v>
+        <v>5345.624645798904</v>
       </c>
       <c r="C11">
-        <v>-1.495145631067963</v>
+        <v>46971.93196840602</v>
       </c>
       <c r="D11">
-        <v>3.781171874999998</v>
+        <v>45847.77191997596</v>
       </c>
       <c r="E11">
-        <v>-2.940335496510343</v>
+        <v>14673.51103330991</v>
       </c>
       <c r="F11">
-        <v>5.298609693877545</v>
+        <v>4770.558385791635</v>
       </c>
       <c r="G11">
-        <v>3.61542377545404</v>
+        <v>-178264.6150522821</v>
       </c>
       <c r="H11">
-        <v>1.700497925311204</v>
+        <v>-60655.21709899965</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2256,25 +1632,779 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>0.2649253731343251</v>
+        <v>-10999.57723880566</v>
       </c>
       <c r="C12">
-        <v>-2.916666666666671</v>
+        <v>-165366.883663343</v>
       </c>
       <c r="D12">
-        <v>-8.727209131075114</v>
+        <v>-317919.7925363695</v>
       </c>
       <c r="E12">
-        <v>-14.89584422239303</v>
+        <v>62420.98856706737</v>
       </c>
       <c r="F12">
-        <v>-6.455082822781939</v>
+        <v>-84789.17617516538</v>
       </c>
       <c r="G12">
-        <v>-1.61608077786088</v>
+        <v>-353578.4124179338</v>
       </c>
       <c r="H12">
-        <v>7.490474333983105</v>
+        <v>-870232.8534645501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B13">
+        <v>-9979.941111111191</v>
+      </c>
+      <c r="C13">
+        <v>-167202.2830421079</v>
+      </c>
+      <c r="D13">
+        <v>47773.66460103134</v>
+      </c>
+      <c r="E13">
+        <v>-4846.45706134435</v>
+      </c>
+      <c r="F13">
+        <v>-99557.28085907761</v>
+      </c>
+      <c r="G13">
+        <v>-300672.0471882531</v>
+      </c>
+      <c r="H13">
+        <v>-534484.3446608628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B2">
+        <v>54.76165803108807</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>94.8136645962733</v>
+      </c>
+      <c r="E2">
+        <v>71.50919552477357</v>
+      </c>
+      <c r="F2">
+        <v>60.62060215053764</v>
+      </c>
+      <c r="G2">
+        <v>46.67425369789332</v>
+      </c>
+      <c r="H2">
+        <v>27.28151658767773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B3">
+        <v>79.73653846153846</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>67.56558139534884</v>
+      </c>
+      <c r="E3">
+        <v>84.74163265306122</v>
+      </c>
+      <c r="F3">
+        <v>37.78520215633423</v>
+      </c>
+      <c r="G3">
+        <v>45.09897915168943</v>
+      </c>
+      <c r="H3">
+        <v>25.76043360433604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B4">
+        <v>24.31029411764706</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>71.11451612903227</v>
+      </c>
+      <c r="E4">
+        <v>62.04924457741211</v>
+      </c>
+      <c r="F4">
+        <v>39.00409620596206</v>
+      </c>
+      <c r="G4">
+        <v>34.51555190930787</v>
+      </c>
+      <c r="H4">
+        <v>19.67731582786287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B5">
+        <v>46.78081967213115</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>63.98418972332015</v>
+      </c>
+      <c r="E5">
+        <v>76.80783018867925</v>
+      </c>
+      <c r="F5">
+        <v>42.61277682460077</v>
+      </c>
+      <c r="G5">
+        <v>37.8901552895503</v>
+      </c>
+      <c r="H5">
+        <v>22.30747879722437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B6">
+        <v>35.61217948717949</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>65.58157894736843</v>
+      </c>
+      <c r="E6">
+        <v>48.42156875834446</v>
+      </c>
+      <c r="F6">
+        <v>33.53794211083657</v>
+      </c>
+      <c r="G6">
+        <v>32.10678171939917</v>
+      </c>
+      <c r="H6">
+        <v>19.54392523364486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B7">
+        <v>44.61585365853659</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>62.60561538461538</v>
+      </c>
+      <c r="E7">
+        <v>79.64600329686796</v>
+      </c>
+      <c r="F7">
+        <v>35.21530721044915</v>
+      </c>
+      <c r="G7">
+        <v>40.47014157973174</v>
+      </c>
+      <c r="H7">
+        <v>21.56388676358072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B8">
+        <v>46.67222222222222</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>45.57118555352002</v>
+      </c>
+      <c r="E8">
+        <v>72.10295496379925</v>
+      </c>
+      <c r="F8">
+        <v>40.38246872753415</v>
+      </c>
+      <c r="G8">
+        <v>38.57792212267402</v>
+      </c>
+      <c r="H8">
+        <v>19.84826568265683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B9">
+        <v>33.41167741935484</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>49.8302752293578</v>
+      </c>
+      <c r="E9">
+        <v>63.77211455211455</v>
+      </c>
+      <c r="F9">
+        <v>27.69729473826592</v>
+      </c>
+      <c r="G9">
+        <v>40.29575392845202</v>
+      </c>
+      <c r="H9">
+        <v>21.39520494972931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B10">
+        <v>38.73555729984302</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>96.22588235294117</v>
+      </c>
+      <c r="E10">
+        <v>60.46676580769667</v>
+      </c>
+      <c r="F10">
+        <v>27.62909090909091</v>
+      </c>
+      <c r="G10">
+        <v>42.24242857142857</v>
+      </c>
+      <c r="H10">
+        <v>22.61413533834586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B11">
+        <v>44.86902800658979</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>67.79390625000001</v>
+      </c>
+      <c r="E11">
+        <v>62.33712746418514</v>
+      </c>
+      <c r="F11">
+        <v>42.70967602040816</v>
+      </c>
+      <c r="G11">
+        <v>41.31307925151348</v>
+      </c>
+      <c r="H11">
+        <v>22.13775933609958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B12">
+        <v>40.95335820895522</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>54.91259204712812</v>
+      </c>
+      <c r="E12">
+        <v>50.61526518063028</v>
+      </c>
+      <c r="F12">
+        <v>32.24020875879283</v>
+      </c>
+      <c r="G12">
+        <v>35.69427823485415</v>
+      </c>
+      <c r="H12">
+        <v>26.69265756985055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B13">
+        <v>41.25222222222222</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>55.30334190231362</v>
+      </c>
+      <c r="E13">
+        <v>71.99176956091119</v>
+      </c>
+      <c r="F13">
+        <v>46.98977005347594</v>
+      </c>
+      <c r="G13">
+        <v>36.11872679738562</v>
+      </c>
+      <c r="H13">
+        <v>25.31807594936709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B14">
+        <v>43.02372262773722</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>78.64128712871288</v>
+      </c>
+      <c r="E14">
+        <v>63.42540152534769</v>
+      </c>
+      <c r="F14">
+        <v>29.93375486381323</v>
+      </c>
+      <c r="G14">
+        <v>36.37534814413439</v>
+      </c>
+      <c r="H14">
+        <v>17.3477537437604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B2">
+        <v>14.11165803108808</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>30.9136645962733</v>
+      </c>
+      <c r="E2">
+        <v>6.289195524773575</v>
+      </c>
+      <c r="F2">
+        <v>22.63060215053763</v>
+      </c>
+      <c r="G2">
+        <v>9.244253697893321</v>
+      </c>
+      <c r="H2">
+        <v>6.481516587677728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B3">
+        <v>39.08653846153846</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.665581395348845</v>
+      </c>
+      <c r="E3">
+        <v>19.52163265306122</v>
+      </c>
+      <c r="F3">
+        <v>-0.2047978436657729</v>
+      </c>
+      <c r="G3">
+        <v>7.668979151689435</v>
+      </c>
+      <c r="H3">
+        <v>4.960433604336043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B4">
+        <v>-16.33970588235294</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7.214516129032269</v>
+      </c>
+      <c r="E4">
+        <v>-3.170755422587888</v>
+      </c>
+      <c r="F4">
+        <v>1.014096205962062</v>
+      </c>
+      <c r="G4">
+        <v>-2.914448090692126</v>
+      </c>
+      <c r="H4">
+        <v>-1.122684172137127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B5">
+        <v>6.130819672131153</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.08418972332015073</v>
+      </c>
+      <c r="E5">
+        <v>11.58783018867925</v>
+      </c>
+      <c r="F5">
+        <v>4.62277682460077</v>
+      </c>
+      <c r="G5">
+        <v>0.4601552895503005</v>
+      </c>
+      <c r="H5">
+        <v>1.507478797224366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B6">
+        <v>-5.03782051282051</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.681578947368429</v>
+      </c>
+      <c r="E6">
+        <v>-16.79843124165554</v>
+      </c>
+      <c r="F6">
+        <v>-4.452057889163427</v>
+      </c>
+      <c r="G6">
+        <v>-5.323218280600827</v>
+      </c>
+      <c r="H6">
+        <v>-1.256074766355141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B7">
+        <v>3.965853658536588</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-1.294384615384615</v>
+      </c>
+      <c r="E7">
+        <v>14.42600329686796</v>
+      </c>
+      <c r="F7">
+        <v>-2.774692789550848</v>
+      </c>
+      <c r="G7">
+        <v>3.040141579731738</v>
+      </c>
+      <c r="H7">
+        <v>0.7638867635807216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B8">
+        <v>6.022222222222219</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-18.32881444647998</v>
+      </c>
+      <c r="E8">
+        <v>6.88295496379925</v>
+      </c>
+      <c r="F8">
+        <v>2.392468727534151</v>
+      </c>
+      <c r="G8">
+        <v>1.147922122674025</v>
+      </c>
+      <c r="H8">
+        <v>-0.951734317343174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B9">
+        <v>-7.238322580645161</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-14.0697247706422</v>
+      </c>
+      <c r="E9">
+        <v>-1.447885447885447</v>
+      </c>
+      <c r="F9">
+        <v>-10.29270526173408</v>
+      </c>
+      <c r="G9">
+        <v>2.865753928452023</v>
+      </c>
+      <c r="H9">
+        <v>0.595204949729311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B10">
+        <v>-1.914442700156982</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>32.32588235294117</v>
+      </c>
+      <c r="E10">
+        <v>-4.753234192303324</v>
+      </c>
+      <c r="F10">
+        <v>-10.36090909090909</v>
+      </c>
+      <c r="G10">
+        <v>4.812428571428569</v>
+      </c>
+      <c r="H10">
+        <v>1.814135338345864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B11">
+        <v>4.219028006589788</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3.893906250000008</v>
+      </c>
+      <c r="E11">
+        <v>-2.882872535814862</v>
+      </c>
+      <c r="F11">
+        <v>4.719676020408158</v>
+      </c>
+      <c r="G11">
+        <v>3.883079251513479</v>
+      </c>
+      <c r="H11">
+        <v>1.337759336099584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B12">
+        <v>0.3033582089552169</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-8.987407952871877</v>
+      </c>
+      <c r="E12">
+        <v>-14.60473481936972</v>
+      </c>
+      <c r="F12">
+        <v>-5.74979124120717</v>
+      </c>
+      <c r="G12">
+        <v>-1.735721765145847</v>
+      </c>
+      <c r="H12">
+        <v>5.892657569850552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B13">
+        <v>0.602222222222224</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-8.59665809768638</v>
+      </c>
+      <c r="E13">
+        <v>6.771769560911196</v>
+      </c>
+      <c r="F13">
+        <v>8.999770053475935</v>
+      </c>
+      <c r="G13">
+        <v>-1.31127320261438</v>
+      </c>
+      <c r="H13">
+        <v>4.518075949367088</v>
       </c>
     </row>
   </sheetData>
@@ -2312,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>33.57</v>
+        <v>38.97</v>
       </c>
       <c r="D2">
-        <v>34.9</v>
+        <v>39.99</v>
       </c>
       <c r="E2">
-        <v>35.5</v>
+        <v>40.65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2329,13 +2459,13 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>36.68</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>37.46</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>38.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2346,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>56.97</v>
+        <v>58.67</v>
       </c>
       <c r="D4">
-        <v>60.28</v>
+        <v>62.12</v>
       </c>
       <c r="E4">
-        <v>61.66</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2363,13 +2493,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>60.43</v>
+        <v>59.25</v>
       </c>
       <c r="D5">
-        <v>63.45</v>
+        <v>62.21</v>
       </c>
       <c r="E5">
-        <v>65.12</v>
+        <v>63.83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2380,13 +2510,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>38.51</v>
+        <v>34.31</v>
       </c>
       <c r="D6">
-        <v>40.03</v>
+        <v>35.84</v>
       </c>
       <c r="E6">
-        <v>41.77</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2397,13 +2527,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>33.02</v>
+        <v>35.46</v>
       </c>
       <c r="D7">
-        <v>33.96</v>
+        <v>36.47</v>
       </c>
       <c r="E7">
-        <v>34.57</v>
+        <v>37.18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2414,13 +2544,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>25.73</v>
+        <v>20.12</v>
       </c>
       <c r="D8">
-        <v>26.07</v>
+        <v>20.46</v>
       </c>
       <c r="E8">
-        <v>26.4</v>
+        <v>20.75</v>
       </c>
     </row>
   </sheetData>
@@ -2458,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30.16</v>
+        <v>34.53</v>
       </c>
       <c r="D2">
-        <v>32.6</v>
+        <v>37.33</v>
       </c>
       <c r="E2">
-        <v>34.76</v>
+        <v>39.95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2475,13 +2605,13 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>33.89</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>36.07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>37.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2492,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>53.92</v>
+        <v>55.53</v>
       </c>
       <c r="D4">
-        <v>56.79</v>
+        <v>58.48</v>
       </c>
       <c r="E4">
-        <v>59.27</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2509,13 +2639,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>57.93</v>
+        <v>56.8</v>
       </c>
       <c r="D5">
-        <v>61.23</v>
+        <v>60.03</v>
       </c>
       <c r="E5">
-        <v>63.23</v>
+        <v>62.02</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2526,13 +2656,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>32.96</v>
+        <v>29.36</v>
       </c>
       <c r="D6">
-        <v>35.38</v>
+        <v>31.51</v>
       </c>
       <c r="E6">
-        <v>40.34</v>
+        <v>35.93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2543,13 +2673,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>31.45</v>
+        <v>33.78</v>
       </c>
       <c r="D7">
-        <v>32.87</v>
+        <v>35.3</v>
       </c>
       <c r="E7">
-        <v>34.36</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2560,13 +2690,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>25.13</v>
+        <v>19.56</v>
       </c>
       <c r="D8">
-        <v>25.81</v>
+        <v>20.11</v>
       </c>
       <c r="E8">
-        <v>26.48</v>
+        <v>20.83</v>
       </c>
     </row>
   </sheetData>
